--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>206347.3454349011</v>
+        <v>205680.7279984794</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392548.0828146758</v>
+        <v>392548.0828146756</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>28.42894969251407</v>
       </c>
       <c r="F11" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="H11" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36.42873081279468</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>38.03834418970707</v>
+        <v>46.03812530998766</v>
       </c>
       <c r="V11" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.037534323606003</v>
+        <v>6.037534323606025</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>72.79803794245706</v>
+        <v>10.83321277868802</v>
       </c>
       <c r="U12" t="n">
-        <v>33.11619900411942</v>
+        <v>33.11619900411953</v>
       </c>
       <c r="V12" t="n">
-        <v>36.53747918923759</v>
+        <v>36.5374791892377</v>
       </c>
       <c r="W12" t="n">
-        <v>62.59314185084693</v>
+        <v>62.59314185084705</v>
       </c>
       <c r="X12" t="n">
-        <v>13.20147271330595</v>
+        <v>13.20147271330606</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.27284440786096</v>
+        <v>81.23766957162957</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.2313827147981</v>
+        <v>31.23138271479822</v>
       </c>
       <c r="T13" t="n">
-        <v>19.62677120258695</v>
+        <v>19.62677120258707</v>
       </c>
       <c r="U13" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="V13" t="n">
-        <v>40.99757345828525</v>
+        <v>40.99757345828536</v>
       </c>
       <c r="W13" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="X13" t="n">
-        <v>17.80801368207787</v>
+        <v>17.80801368207798</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.02983108800376</v>
+        <v>13.02983108800387</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="F14" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>36.42873081279477</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>18.30111863218002</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>56.16595637032167</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.54481721446609</v>
+        <v>38.03834418970689</v>
       </c>
     </row>
     <row r="15">
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>68.00235948737468</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.037534323606025</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.83321277868799</v>
+        <v>72.79803794245666</v>
       </c>
       <c r="U15" t="n">
         <v>33.1161990041195</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.23138271479818</v>
+        <v>31.23138271479819</v>
       </c>
       <c r="T16" t="n">
         <v>19.62677120258704</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="V16" t="n">
         <v>40.99757345828533</v>
       </c>
       <c r="W16" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="X16" t="n">
         <v>17.80801368207796</v>
@@ -1844,7 +1844,7 @@
         <v>38.6543480575009</v>
       </c>
       <c r="C17" t="n">
-        <v>14.77260506084718</v>
+        <v>14.77260506084639</v>
       </c>
       <c r="D17" t="n">
         <v>2.339267321894852</v>
@@ -1853,13 +1853,13 @@
         <v>36.04601974130372</v>
       </c>
       <c r="F17" t="n">
-        <v>67.76635731968105</v>
+        <v>67.76635731968165</v>
       </c>
       <c r="G17" t="n">
         <v>83.39309993609689</v>
       </c>
       <c r="H17" t="n">
-        <v>11.4637606306505</v>
+        <v>11.46376063065048</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1926,25 +1926,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>16.57010772354269</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>16.57010772354259</v>
       </c>
       <c r="I18" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.037534323606003</v>
+        <v>6.037534323606025</v>
       </c>
       <c r="R18" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
     </row>
     <row r="19">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.65434805750106</v>
+        <v>38.6543480575009</v>
       </c>
       <c r="C20" t="n">
         <v>14.77260506084639</v>
@@ -2090,7 +2090,7 @@
         <v>36.04601974130372</v>
       </c>
       <c r="F20" t="n">
-        <v>67.76635731968105</v>
+        <v>67.76635731968121</v>
       </c>
       <c r="G20" t="n">
         <v>83.39309993609689</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>16.57010772354257</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="J21" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.037534323606025</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>22.60764204714867</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2394,58 +2394,58 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>84.54481721446611</v>
+      </c>
+      <c r="E24" t="n">
+        <v>84.54481721446611</v>
+      </c>
+      <c r="F24" t="n">
+        <v>84.54481721446611</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>74.46707500250172</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>84.54481721446609</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>84.54481721446609</v>
-      </c>
-      <c r="S24" t="n">
-        <v>84.54481721446609</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.246796807794</v>
+        <v>161.2467968077939</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3650538111395</v>
+        <v>137.3650538111394</v>
       </c>
       <c r="D26" t="n">
-        <v>124.931716072188</v>
+        <v>124.9317160721878</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6384684915968</v>
+        <v>158.6384684915967</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3588060699742</v>
+        <v>190.358806069974</v>
       </c>
       <c r="G26" t="n">
-        <v>205.98554868639</v>
+        <v>205.9855486863899</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0562093809436</v>
+        <v>134.0562093809435</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69972896892</v>
+        <v>27.69972896891991</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39898314543824</v>
+        <v>14.39898314543813</v>
       </c>
       <c r="T26" t="n">
-        <v>9.572116788305264</v>
+        <v>9.572116788305152</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30912346611288</v>
+        <v>37.30912346611277</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0393400391127</v>
+        <v>108.0393400391126</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0560202557276</v>
+        <v>125.0560202557274</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9422707246668</v>
+        <v>146.9422707246667</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4451238484106</v>
+        <v>169.4451238484104</v>
       </c>
     </row>
     <row r="27">
@@ -2643,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.104210934813235</v>
+        <v>2.104210934813122</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38719716024475</v>
+        <v>24.38719716024464</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80847734536292</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86414000697226</v>
+        <v>263.0724251512184</v>
       </c>
       <c r="X27" t="n">
-        <v>4.472470869431277</v>
+        <v>4.472470869431163</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.5563290539849</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50238087092343</v>
+        <v>22.50238087092332</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89776935871228</v>
+        <v>10.89776935871217</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81581537059132</v>
+        <v>75.81581537059121</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26857161441058</v>
+        <v>32.26857161441046</v>
       </c>
       <c r="W28" t="n">
-        <v>77.470263519296</v>
+        <v>77.47026351929588</v>
       </c>
       <c r="X28" t="n">
-        <v>9.079011838203201</v>
+        <v>9.079011838203087</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.300829244129091</v>
+        <v>4.300829244128977</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>134.0562093809435</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69972896891991</v>
+        <v>27.69972896891994</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39898314543815</v>
+        <v>14.39898314543816</v>
       </c>
       <c r="T29" t="n">
-        <v>9.572116788305179</v>
+        <v>9.572116788305181</v>
       </c>
       <c r="U29" t="n">
         <v>37.30912346611279</v>
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.10421093481315</v>
+        <v>52.48905695913082</v>
       </c>
       <c r="U30" t="n">
         <v>24.38719716024466</v>
@@ -2934,10 +2934,10 @@
         <v>53.86414000697218</v>
       </c>
       <c r="X30" t="n">
-        <v>4.472470869431191</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>85.90210467732739</v>
+        <v>10.5438425639862</v>
       </c>
     </row>
     <row r="31">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50238087092334</v>
+        <v>22.50238087092335</v>
       </c>
       <c r="T31" t="n">
         <v>10.8977693587122</v>
@@ -3044,10 +3044,10 @@
         <v>205.9855486863899</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0562093809436</v>
+        <v>134.0562093809435</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69972896891995</v>
+        <v>27.69972896891997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39898314543818</v>
+        <v>14.39898314543819</v>
       </c>
       <c r="T32" t="n">
-        <v>9.572116788305207</v>
+        <v>9.572116788305209</v>
       </c>
       <c r="U32" t="n">
         <v>37.30912346611282</v>
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>2.104210934813179</v>
       </c>
       <c r="U33" t="n">
-        <v>128.4401716780233</v>
+        <v>24.38719716024469</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80847734536286</v>
       </c>
       <c r="W33" t="n">
-        <v>53.86414000697221</v>
+        <v>263.0724251512181</v>
       </c>
       <c r="X33" t="n">
-        <v>4.47247086943122</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.54384256398623</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3284,7 +3284,7 @@
         <v>110.6615611723161</v>
       </c>
       <c r="I35" t="n">
-        <v>4.305080760292526</v>
+        <v>4.305080760292554</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3345,25 +3345,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>233.3628641937485</v>
+        <v>0.9925489516172765</v>
       </c>
       <c r="V36" t="n">
-        <v>4.413829136735444</v>
+        <v>124.3887700610257</v>
       </c>
       <c r="W36" t="n">
         <v>30.46949179834479</v>
@@ -3521,7 +3521,7 @@
         <v>110.6615611723161</v>
       </c>
       <c r="I38" t="n">
-        <v>4.305080760292526</v>
+        <v>4.305080760292554</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>35.83403092445637</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0.9925489516172765</v>
       </c>
       <c r="V39" t="n">
-        <v>109.1597754440113</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>30.46949179834479</v>
@@ -3648,7 +3648,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3746,10 +3746,10 @@
         <v>101.5370678635605</v>
       </c>
       <c r="E41" t="n">
-        <v>135.2438202829694</v>
+        <v>135.2438202829693</v>
       </c>
       <c r="F41" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613466</v>
       </c>
       <c r="G41" t="n">
         <v>182.5909004777625</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.91447525748541</v>
+        <v>13.91447525748538</v>
       </c>
       <c r="V41" t="n">
-        <v>84.64469183048521</v>
+        <v>84.64469183048519</v>
       </c>
       <c r="W41" t="n">
         <v>101.6613720471001</v>
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>109.8221959403721</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276407302841</v>
+        <v>0.9925489516172481</v>
       </c>
       <c r="V42" t="n">
-        <v>4.413829136735444</v>
+        <v>4.413829136735416</v>
       </c>
       <c r="W42" t="n">
-        <v>30.46949179834479</v>
+        <v>30.46949179834476</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>186.0974235166065</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196382</v>
       </c>
       <c r="V43" t="n">
-        <v>8.873923405783103</v>
+        <v>8.873923405783074</v>
       </c>
       <c r="W43" t="n">
-        <v>54.07561531066852</v>
+        <v>54.0756153106685</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>101.5370678635605</v>
       </c>
       <c r="E44" t="n">
-        <v>135.2438202829694</v>
+        <v>135.2438202829693</v>
       </c>
       <c r="F44" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613466</v>
       </c>
       <c r="G44" t="n">
         <v>182.5909004777625</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.91447525748541</v>
+        <v>13.91447525748538</v>
       </c>
       <c r="V44" t="n">
-        <v>84.64469183048521</v>
+        <v>84.64469183048519</v>
       </c>
       <c r="W44" t="n">
         <v>101.6613720471001</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,22 +4104,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>150.384615982177</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9925489516172765</v>
+        <v>0.9925489516172481</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>230.3279616482877</v>
       </c>
       <c r="W45" t="n">
-        <v>30.46949179834479</v>
+        <v>30.46949179834476</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196382</v>
       </c>
       <c r="V46" t="n">
-        <v>8.873923405783103</v>
+        <v>8.873923405783074</v>
       </c>
       <c r="W46" t="n">
-        <v>54.07561531066852</v>
+        <v>54.0756153106685</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.3578937021339</v>
+        <v>120.878501444814</v>
       </c>
       <c r="C11" t="n">
-        <v>214.3578937021339</v>
+        <v>120.878501444814</v>
       </c>
       <c r="D11" t="n">
-        <v>214.3578937021339</v>
+        <v>120.878501444814</v>
       </c>
       <c r="E11" t="n">
-        <v>214.3578937021339</v>
+        <v>92.16239064429477</v>
       </c>
       <c r="F11" t="n">
-        <v>128.9590884349965</v>
+        <v>92.16239064429477</v>
       </c>
       <c r="G11" t="n">
-        <v>128.9590884349965</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="H11" t="n">
-        <v>43.56028316785898</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="I11" t="n">
         <v>6.763585377157288</v>
       </c>
       <c r="J11" t="n">
-        <v>6.763585377157288</v>
+        <v>82.94899698275117</v>
       </c>
       <c r="K11" t="n">
-        <v>57.76854735444591</v>
+        <v>82.94899698275117</v>
       </c>
       <c r="L11" t="n">
-        <v>141.4679163967674</v>
+        <v>131.5728241922349</v>
       </c>
       <c r="M11" t="n">
-        <v>224.4472526603222</v>
+        <v>214.5521604557896</v>
       </c>
       <c r="N11" t="n">
-        <v>301.926845319852</v>
+        <v>292.0317531153194</v>
       </c>
       <c r="O11" t="n">
-        <v>338.1792688578644</v>
+        <v>328.2841766533317</v>
       </c>
       <c r="P11" t="n">
-        <v>338.1792688578644</v>
+        <v>328.2841766533317</v>
       </c>
       <c r="Q11" t="n">
-        <v>338.1792688578644</v>
+        <v>328.2841766533317</v>
       </c>
       <c r="R11" t="n">
         <v>338.1792688578644</v>
@@ -5072,19 +5072,19 @@
         <v>338.1792688578644</v>
       </c>
       <c r="U11" t="n">
-        <v>299.7566989692714</v>
+        <v>291.676111979089</v>
       </c>
       <c r="V11" t="n">
-        <v>214.3578937021339</v>
+        <v>206.2773067119515</v>
       </c>
       <c r="W11" t="n">
-        <v>214.3578937021339</v>
+        <v>206.2773067119515</v>
       </c>
       <c r="X11" t="n">
-        <v>214.3578937021339</v>
+        <v>206.2773067119515</v>
       </c>
       <c r="Y11" t="n">
-        <v>214.3578937021339</v>
+        <v>206.2773067119515</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>92.16239064429476</v>
+        <v>92.16239064429477</v>
       </c>
       <c r="C12" t="n">
-        <v>92.16239064429476</v>
+        <v>92.16239064429477</v>
       </c>
       <c r="D12" t="n">
-        <v>92.16239064429476</v>
+        <v>92.16239064429477</v>
       </c>
       <c r="E12" t="n">
-        <v>92.16239064429476</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="F12" t="n">
-        <v>92.16239064429476</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="G12" t="n">
-        <v>92.16239064429476</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="H12" t="n">
-        <v>92.16239064429476</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="I12" t="n">
         <v>6.763585377157288</v>
@@ -5121,19 +5121,19 @@
         <v>6.763585377157288</v>
       </c>
       <c r="K12" t="n">
-        <v>45.76878079825745</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="L12" t="n">
-        <v>87.08116173090004</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="M12" t="n">
+        <v>90.46295441947873</v>
+      </c>
+      <c r="N12" t="n">
         <v>170.7805307732215</v>
       </c>
-      <c r="N12" t="n">
-        <v>254.4798998155429</v>
-      </c>
       <c r="O12" t="n">
-        <v>338.1792688578644</v>
+        <v>254.479899815543</v>
       </c>
       <c r="P12" t="n">
         <v>338.1792688578644</v>
@@ -5148,22 +5148,22 @@
         <v>332.0807493390705</v>
       </c>
       <c r="T12" t="n">
-        <v>258.5473776800229</v>
+        <v>321.1381101686785</v>
       </c>
       <c r="U12" t="n">
-        <v>225.0966716152558</v>
+        <v>287.6874041039113</v>
       </c>
       <c r="V12" t="n">
-        <v>188.1901269796623</v>
+        <v>250.7808594683177</v>
       </c>
       <c r="W12" t="n">
-        <v>124.964731170726</v>
+        <v>187.5554636593813</v>
       </c>
       <c r="X12" t="n">
-        <v>111.6299102481947</v>
+        <v>174.2206427368499</v>
       </c>
       <c r="Y12" t="n">
-        <v>92.16239064429476</v>
+        <v>92.16239064429477</v>
       </c>
     </row>
     <row r="13">
@@ -5179,67 +5179,67 @@
         <v>6.763585377157288</v>
       </c>
       <c r="D13" t="n">
-        <v>6.763585377157288</v>
+        <v>65.10308893785658</v>
       </c>
       <c r="E13" t="n">
-        <v>6.763585377157288</v>
+        <v>65.10308893785658</v>
       </c>
       <c r="F13" t="n">
-        <v>6.763585377157288</v>
+        <v>105.2364167753208</v>
       </c>
       <c r="G13" t="n">
-        <v>6.763585377157288</v>
+        <v>140.2983861133622</v>
       </c>
       <c r="H13" t="n">
-        <v>6.763585377157288</v>
+        <v>140.2983861133622</v>
       </c>
       <c r="I13" t="n">
-        <v>6.763585377157288</v>
+        <v>140.2983861133622</v>
       </c>
       <c r="J13" t="n">
-        <v>6.763585377157288</v>
+        <v>140.2983861133622</v>
       </c>
       <c r="K13" t="n">
-        <v>90.46295441947872</v>
+        <v>223.9977551556836</v>
       </c>
       <c r="L13" t="n">
-        <v>140.2983861133613</v>
+        <v>223.9977551556836</v>
       </c>
       <c r="M13" t="n">
-        <v>140.2983861133613</v>
+        <v>223.9977551556836</v>
       </c>
       <c r="N13" t="n">
-        <v>140.2983861133613</v>
+        <v>223.9977551556836</v>
       </c>
       <c r="O13" t="n">
-        <v>223.9977551556827</v>
+        <v>223.9977551556836</v>
       </c>
       <c r="P13" t="n">
-        <v>223.9977551556827</v>
+        <v>223.9977551556836</v>
       </c>
       <c r="Q13" t="n">
-        <v>300.5762136864956</v>
+        <v>300.5762136864963</v>
       </c>
       <c r="R13" t="n">
-        <v>301.4940970687574</v>
+        <v>301.494097068758</v>
       </c>
       <c r="S13" t="n">
-        <v>269.9472458416886</v>
+        <v>269.9472458416892</v>
       </c>
       <c r="T13" t="n">
-        <v>250.1222244249342</v>
+        <v>250.1222244249345</v>
       </c>
       <c r="U13" t="n">
-        <v>164.7234191577967</v>
+        <v>164.723419157797</v>
       </c>
       <c r="V13" t="n">
-        <v>123.3117287958924</v>
+        <v>123.3117287958926</v>
       </c>
       <c r="W13" t="n">
-        <v>37.9129235287549</v>
+        <v>37.91292352875513</v>
       </c>
       <c r="X13" t="n">
-        <v>19.92503092059543</v>
+        <v>19.92503092059555</v>
       </c>
       <c r="Y13" t="n">
         <v>6.763585377157288</v>
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.5611959114322</v>
+        <v>128.9590884349966</v>
       </c>
       <c r="C14" t="n">
-        <v>177.5611959114322</v>
+        <v>128.9590884349966</v>
       </c>
       <c r="D14" t="n">
-        <v>177.5611959114322</v>
+        <v>128.9590884349966</v>
       </c>
       <c r="E14" t="n">
-        <v>177.5611959114322</v>
+        <v>43.56028316785908</v>
       </c>
       <c r="F14" t="n">
-        <v>92.16239064429476</v>
+        <v>43.56028316785908</v>
       </c>
       <c r="G14" t="n">
-        <v>6.763585377157288</v>
+        <v>43.56028316785908</v>
       </c>
       <c r="H14" t="n">
-        <v>6.763585377157288</v>
+        <v>43.56028316785908</v>
       </c>
       <c r="I14" t="n">
         <v>6.763585377157288</v>
       </c>
       <c r="J14" t="n">
-        <v>8.424687366195521</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="K14" t="n">
-        <v>8.424687366195521</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="L14" t="n">
-        <v>57.04851457567925</v>
+        <v>55.38741258664098</v>
       </c>
       <c r="M14" t="n">
-        <v>140.7478836180007</v>
+        <v>138.3667488501957</v>
       </c>
       <c r="N14" t="n">
-        <v>218.2274762775305</v>
+        <v>215.8463415097255</v>
       </c>
       <c r="O14" t="n">
-        <v>254.4798998155429</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="P14" t="n">
-        <v>338.1792688578644</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="Q14" t="n">
-        <v>338.1792688578644</v>
+        <v>328.2841766533317</v>
       </c>
       <c r="R14" t="n">
         <v>338.1792688578644</v>
@@ -5306,22 +5306,22 @@
         <v>338.1792688578644</v>
       </c>
       <c r="T14" t="n">
-        <v>319.6932904415209</v>
+        <v>338.1792688578644</v>
       </c>
       <c r="U14" t="n">
-        <v>319.6932904415209</v>
+        <v>338.1792688578644</v>
       </c>
       <c r="V14" t="n">
-        <v>262.9600011785697</v>
+        <v>338.1792688578644</v>
       </c>
       <c r="W14" t="n">
-        <v>262.9600011785697</v>
+        <v>252.7804635907269</v>
       </c>
       <c r="X14" t="n">
-        <v>262.9600011785697</v>
+        <v>252.7804635907269</v>
       </c>
       <c r="Y14" t="n">
-        <v>177.5611959114322</v>
+        <v>214.3578937021341</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>160.8516426517439</v>
+        <v>92.16239064429477</v>
       </c>
       <c r="C15" t="n">
-        <v>160.8516426517439</v>
+        <v>92.16239064429477</v>
       </c>
       <c r="D15" t="n">
-        <v>160.8516426517439</v>
+        <v>92.16239064429477</v>
       </c>
       <c r="E15" t="n">
-        <v>160.8516426517439</v>
+        <v>92.16239064429477</v>
       </c>
       <c r="F15" t="n">
-        <v>75.45283738460645</v>
+        <v>92.16239064429477</v>
       </c>
       <c r="G15" t="n">
-        <v>75.45283738460645</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="H15" t="n">
-        <v>75.45283738460645</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="I15" t="n">
         <v>6.763585377157288</v>
@@ -5358,16 +5358,16 @@
         <v>6.763585377157288</v>
       </c>
       <c r="K15" t="n">
-        <v>6.763585377157288</v>
+        <v>45.76878079825743</v>
       </c>
       <c r="L15" t="n">
-        <v>90.46295441947872</v>
+        <v>129.4681498405789</v>
       </c>
       <c r="M15" t="n">
-        <v>174.1623234618002</v>
+        <v>213.1675188829003</v>
       </c>
       <c r="N15" t="n">
-        <v>254.4798998155429</v>
+        <v>296.8668879252218</v>
       </c>
       <c r="O15" t="n">
         <v>338.1792688578644</v>
@@ -5376,31 +5376,31 @@
         <v>338.1792688578644</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.1792688578644</v>
+        <v>332.0807493390705</v>
       </c>
       <c r="R15" t="n">
-        <v>338.1792688578644</v>
+        <v>332.0807493390705</v>
       </c>
       <c r="S15" t="n">
-        <v>338.1792688578644</v>
+        <v>332.0807493390705</v>
       </c>
       <c r="T15" t="n">
-        <v>327.2366296874725</v>
+        <v>258.5473776800233</v>
       </c>
       <c r="U15" t="n">
-        <v>293.7859236227053</v>
+        <v>225.0966716152562</v>
       </c>
       <c r="V15" t="n">
-        <v>256.8793789871117</v>
+        <v>188.1901269796626</v>
       </c>
       <c r="W15" t="n">
-        <v>193.6539831781753</v>
+        <v>124.9647311707262</v>
       </c>
       <c r="X15" t="n">
-        <v>180.319162255644</v>
+        <v>111.6299102481948</v>
       </c>
       <c r="Y15" t="n">
-        <v>160.8516426517439</v>
+        <v>92.16239064429477</v>
       </c>
     </row>
     <row r="16">
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.9931612277418</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="C16" t="n">
-        <v>32.9931612277418</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="D16" t="n">
-        <v>32.9931612277418</v>
+        <v>65.10308893785661</v>
       </c>
       <c r="E16" t="n">
-        <v>94.80410873654199</v>
+        <v>126.9140364466568</v>
       </c>
       <c r="F16" t="n">
-        <v>94.80410873654199</v>
+        <v>191.4467503592975</v>
       </c>
       <c r="G16" t="n">
-        <v>94.80410873654199</v>
+        <v>191.4467503592975</v>
       </c>
       <c r="H16" t="n">
-        <v>94.80410873654199</v>
+        <v>191.4467503592975</v>
       </c>
       <c r="I16" t="n">
-        <v>133.8326672656161</v>
+        <v>218.0785503306622</v>
       </c>
       <c r="J16" t="n">
-        <v>133.8326672656161</v>
+        <v>301.4940970687579</v>
       </c>
       <c r="K16" t="n">
-        <v>217.5320363079376</v>
+        <v>301.4940970687579</v>
       </c>
       <c r="L16" t="n">
-        <v>301.231405350259</v>
+        <v>301.4940970687579</v>
       </c>
       <c r="M16" t="n">
-        <v>301.231405350259</v>
+        <v>301.4940970687579</v>
       </c>
       <c r="N16" t="n">
-        <v>301.231405350259</v>
+        <v>301.4940970687579</v>
       </c>
       <c r="O16" t="n">
-        <v>301.231405350259</v>
+        <v>301.4940970687579</v>
       </c>
       <c r="P16" t="n">
-        <v>301.231405350259</v>
+        <v>301.4940970687579</v>
       </c>
       <c r="Q16" t="n">
-        <v>301.231405350259</v>
+        <v>301.4940970687579</v>
       </c>
       <c r="R16" t="n">
         <v>301.4940970687579</v>
@@ -5470,7 +5470,7 @@
         <v>164.7234191577969</v>
       </c>
       <c r="V16" t="n">
-        <v>123.3117287958925</v>
+        <v>123.3117287958926</v>
       </c>
       <c r="W16" t="n">
         <v>37.91292352875507</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.7243025594539</v>
+        <v>224.724302559454</v>
       </c>
       <c r="C17" t="n">
-        <v>209.8024792656693</v>
+        <v>209.80247926567</v>
       </c>
       <c r="D17" t="n">
-        <v>207.439582980927</v>
+        <v>207.4395829809277</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0294620301152</v>
+        <v>171.0294620301158</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5785960506393</v>
+        <v>102.5785960506394</v>
       </c>
       <c r="G17" t="n">
-        <v>18.34314156973355</v>
+        <v>18.34314156973354</v>
       </c>
       <c r="H17" t="n">
         <v>6.763585377157288</v>
@@ -5519,31 +5519,31 @@
         <v>6.763585377157288</v>
       </c>
       <c r="L17" t="n">
-        <v>90.46295441947872</v>
+        <v>55.38741258664098</v>
       </c>
       <c r="M17" t="n">
-        <v>174.1623234618002</v>
+        <v>138.3667488501957</v>
       </c>
       <c r="N17" t="n">
-        <v>257.8616925041216</v>
+        <v>215.8463415097255</v>
       </c>
       <c r="O17" t="n">
-        <v>294.114116042134</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="P17" t="n">
-        <v>294.114116042134</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="Q17" t="n">
-        <v>294.114116042134</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="R17" t="n">
-        <v>323.7716912337958</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="S17" t="n">
-        <v>323.7716912337958</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="T17" t="n">
-        <v>323.7716912337958</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="U17" t="n">
         <v>323.7716912337958</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>246.681944071933</v>
+        <v>161.2831388047954</v>
       </c>
       <c r="C18" t="n">
-        <v>246.681944071933</v>
+        <v>161.2831388047954</v>
       </c>
       <c r="D18" t="n">
-        <v>161.2831388047955</v>
+        <v>161.2831388047954</v>
       </c>
       <c r="E18" t="n">
-        <v>144.5456562557625</v>
+        <v>161.2831388047954</v>
       </c>
       <c r="F18" t="n">
-        <v>144.5456562557625</v>
+        <v>75.88433353765795</v>
       </c>
       <c r="G18" t="n">
-        <v>144.5456562557625</v>
+        <v>75.88433353765795</v>
       </c>
       <c r="H18" t="n">
-        <v>144.5456562557625</v>
+        <v>59.14685098862503</v>
       </c>
       <c r="I18" t="n">
-        <v>59.14685098862502</v>
+        <v>59.14685098862503</v>
       </c>
       <c r="J18" t="n">
         <v>6.763585377157288</v>
@@ -5598,16 +5598,16 @@
         <v>6.763585377157288</v>
       </c>
       <c r="L18" t="n">
-        <v>87.08116173090004</v>
+        <v>87.08116173090008</v>
       </c>
       <c r="M18" t="n">
-        <v>87.08116173090004</v>
+        <v>170.7805307732215</v>
       </c>
       <c r="N18" t="n">
-        <v>170.7805307732215</v>
+        <v>254.479899815543</v>
       </c>
       <c r="O18" t="n">
-        <v>254.4798998155429</v>
+        <v>338.1792688578644</v>
       </c>
       <c r="P18" t="n">
         <v>338.1792688578644</v>
@@ -5616,28 +5616,28 @@
         <v>332.0807493390705</v>
       </c>
       <c r="R18" t="n">
-        <v>246.681944071933</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="S18" t="n">
-        <v>246.681944071933</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="T18" t="n">
-        <v>246.681944071933</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="U18" t="n">
-        <v>246.681944071933</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="V18" t="n">
-        <v>246.681944071933</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="W18" t="n">
-        <v>246.681944071933</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="X18" t="n">
-        <v>246.681944071933</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="Y18" t="n">
-        <v>246.681944071933</v>
+        <v>161.2831388047954</v>
       </c>
     </row>
     <row r="19">
@@ -5726,58 +5726,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7243025594535</v>
+        <v>224.7243025594537</v>
       </c>
       <c r="C20" t="n">
-        <v>209.8024792656693</v>
+        <v>209.8024792656695</v>
       </c>
       <c r="D20" t="n">
-        <v>207.439582980927</v>
+        <v>207.4395829809271</v>
       </c>
       <c r="E20" t="n">
-        <v>171.0294620301151</v>
+        <v>171.0294620301153</v>
       </c>
       <c r="F20" t="n">
-        <v>102.5785960506393</v>
+        <v>102.5785960506396</v>
       </c>
       <c r="G20" t="n">
-        <v>18.34314156973353</v>
+        <v>18.34314156973354</v>
       </c>
       <c r="H20" t="n">
         <v>6.763585377157288</v>
       </c>
       <c r="I20" t="n">
-        <v>6.763585377157288</v>
+        <v>78.43651156321528</v>
       </c>
       <c r="J20" t="n">
-        <v>6.763585377157288</v>
+        <v>78.43651156321528</v>
       </c>
       <c r="K20" t="n">
-        <v>6.763585377157288</v>
+        <v>78.43651156321528</v>
       </c>
       <c r="L20" t="n">
-        <v>55.38741258664102</v>
+        <v>127.060338772699</v>
       </c>
       <c r="M20" t="n">
-        <v>138.3667488501958</v>
+        <v>210.0396750362537</v>
       </c>
       <c r="N20" t="n">
-        <v>215.8463415097256</v>
+        <v>287.5192676957835</v>
       </c>
       <c r="O20" t="n">
-        <v>299.5457105520471</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="P20" t="n">
-        <v>299.5457105520471</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="Q20" t="n">
-        <v>299.5457105520471</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="R20" t="n">
-        <v>299.5457105520471</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="S20" t="n">
-        <v>299.5457105520471</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="T20" t="n">
         <v>323.7716912337958</v>
@@ -5792,7 +5792,7 @@
         <v>335.690812791769</v>
       </c>
       <c r="X20" t="n">
-        <v>311.0950330196743</v>
+        <v>311.0950330196744</v>
       </c>
       <c r="Y20" t="n">
         <v>263.7690985771314</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>246.6819440719329</v>
+      </c>
+      <c r="C21" t="n">
+        <v>246.6819440719329</v>
+      </c>
+      <c r="D21" t="n">
+        <v>246.6819440719329</v>
+      </c>
+      <c r="E21" t="n">
+        <v>246.6819440719329</v>
+      </c>
+      <c r="F21" t="n">
+        <v>246.6819440719329</v>
+      </c>
+      <c r="G21" t="n">
+        <v>229.9444615229</v>
+      </c>
+      <c r="H21" t="n">
         <v>144.5456562557625</v>
       </c>
-      <c r="C21" t="n">
-        <v>144.5456562557625</v>
-      </c>
-      <c r="D21" t="n">
-        <v>59.14685098862502</v>
-      </c>
-      <c r="E21" t="n">
-        <v>59.14685098862502</v>
-      </c>
-      <c r="F21" t="n">
-        <v>59.14685098862502</v>
-      </c>
-      <c r="G21" t="n">
-        <v>59.14685098862502</v>
-      </c>
-      <c r="H21" t="n">
-        <v>59.14685098862502</v>
-      </c>
       <c r="I21" t="n">
-        <v>59.14685098862502</v>
+        <v>59.14685098862503</v>
       </c>
       <c r="J21" t="n">
         <v>6.763585377157288</v>
       </c>
       <c r="K21" t="n">
-        <v>45.76878079825745</v>
+        <v>45.76878079825743</v>
       </c>
       <c r="L21" t="n">
         <v>129.4681498405789</v>
       </c>
       <c r="M21" t="n">
-        <v>129.4681498405789</v>
+        <v>213.1675188829003</v>
       </c>
       <c r="N21" t="n">
-        <v>213.1675188829003</v>
+        <v>296.8668879252218</v>
       </c>
       <c r="O21" t="n">
-        <v>296.8668879252218</v>
+        <v>338.1792688578644</v>
       </c>
       <c r="P21" t="n">
         <v>338.1792688578644</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.1792688578644</v>
+        <v>332.0807493390705</v>
       </c>
       <c r="R21" t="n">
-        <v>338.1792688578644</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="S21" t="n">
-        <v>338.1792688578644</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="T21" t="n">
-        <v>252.7804635907269</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="U21" t="n">
-        <v>229.9444615229</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="V21" t="n">
-        <v>229.9444615229</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="W21" t="n">
-        <v>229.9444615229</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="X21" t="n">
-        <v>144.5456562557625</v>
+        <v>246.6819440719329</v>
       </c>
       <c r="Y21" t="n">
-        <v>144.5456562557625</v>
+        <v>246.6819440719329</v>
       </c>
     </row>
     <row r="22">
@@ -5969,16 +5969,16 @@
         <v>209.8024792656693</v>
       </c>
       <c r="D23" t="n">
-        <v>207.4395829809273</v>
+        <v>207.4395829809274</v>
       </c>
       <c r="E23" t="n">
         <v>171.0294620301152</v>
       </c>
       <c r="F23" t="n">
-        <v>102.5785960506393</v>
+        <v>102.5785960506394</v>
       </c>
       <c r="G23" t="n">
-        <v>18.34314156973353</v>
+        <v>18.34314156973354</v>
       </c>
       <c r="H23" t="n">
         <v>6.763585377157288</v>
@@ -5993,43 +5993,43 @@
         <v>6.763585377157288</v>
       </c>
       <c r="L23" t="n">
-        <v>55.38741258664102</v>
+        <v>55.38741258664098</v>
       </c>
       <c r="M23" t="n">
-        <v>138.3667488501958</v>
+        <v>138.3667488501957</v>
       </c>
       <c r="N23" t="n">
-        <v>215.8463415097256</v>
+        <v>215.8463415097255</v>
       </c>
       <c r="O23" t="n">
-        <v>252.0987650477381</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="P23" t="n">
-        <v>252.0987650477381</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.0987650477381</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="R23" t="n">
-        <v>252.0987650477381</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="S23" t="n">
-        <v>252.0987650477381</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="T23" t="n">
-        <v>254.4798998155429</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="U23" t="n">
-        <v>338.1792688578644</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="V23" t="n">
         <v>338.1792688578644</v>
       </c>
       <c r="W23" t="n">
-        <v>335.6908127917688</v>
+        <v>335.6908127917689</v>
       </c>
       <c r="X23" t="n">
-        <v>311.0950330196742</v>
+        <v>311.0950330196743</v>
       </c>
       <c r="Y23" t="n">
         <v>263.7690985771313</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.16239064429476</v>
+        <v>262.9600011785698</v>
       </c>
       <c r="C24" t="n">
-        <v>92.16239064429476</v>
+        <v>262.9600011785698</v>
       </c>
       <c r="D24" t="n">
-        <v>92.16239064429476</v>
+        <v>177.5611959114323</v>
       </c>
       <c r="E24" t="n">
-        <v>92.16239064429476</v>
+        <v>92.16239064429477</v>
       </c>
       <c r="F24" t="n">
-        <v>92.16239064429476</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="G24" t="n">
         <v>6.763585377157288</v>
@@ -6069,19 +6069,19 @@
         <v>6.763585377157288</v>
       </c>
       <c r="K24" t="n">
-        <v>6.763585377157288</v>
+        <v>45.76878079825743</v>
       </c>
       <c r="L24" t="n">
-        <v>90.46295441947872</v>
+        <v>87.08116173090008</v>
       </c>
       <c r="M24" t="n">
-        <v>90.46295441947872</v>
+        <v>170.7805307732215</v>
       </c>
       <c r="N24" t="n">
-        <v>174.1623234618002</v>
+        <v>170.7805307732215</v>
       </c>
       <c r="O24" t="n">
-        <v>254.4798998155429</v>
+        <v>254.479899815543</v>
       </c>
       <c r="P24" t="n">
         <v>338.1792688578644</v>
@@ -6090,28 +6090,28 @@
         <v>338.1792688578644</v>
       </c>
       <c r="R24" t="n">
-        <v>252.7804635907269</v>
+        <v>338.1792688578644</v>
       </c>
       <c r="S24" t="n">
-        <v>167.3816583235894</v>
+        <v>262.9600011785698</v>
       </c>
       <c r="T24" t="n">
-        <v>167.3816583235894</v>
+        <v>262.9600011785698</v>
       </c>
       <c r="U24" t="n">
-        <v>167.3816583235894</v>
+        <v>262.9600011785698</v>
       </c>
       <c r="V24" t="n">
-        <v>167.3816583235894</v>
+        <v>262.9600011785698</v>
       </c>
       <c r="W24" t="n">
-        <v>167.3816583235894</v>
+        <v>262.9600011785698</v>
       </c>
       <c r="X24" t="n">
-        <v>167.3816583235894</v>
+        <v>262.9600011785698</v>
       </c>
       <c r="Y24" t="n">
-        <v>167.3816583235894</v>
+        <v>262.9600011785698</v>
       </c>
     </row>
     <row r="25">
@@ -6203,40 +6203,40 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2687840112823</v>
+        <v>886.2687840112822</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0751314131128</v>
+        <v>760.0751314131126</v>
       </c>
       <c r="E26" t="n">
         <v>599.8342541488735</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5526318559705</v>
+        <v>407.5526318559704</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4864210616372</v>
+        <v>199.4864210616373</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07610855563388</v>
+        <v>64.07610855563379</v>
       </c>
       <c r="I26" t="n">
         <v>36.09658434460358</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8183046963237</v>
+        <v>171.8183046963238</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4043607994712</v>
+        <v>377.4043607994714</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7402271432939</v>
+        <v>636.7402271432941</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4316025411875</v>
+        <v>930.4316025411879</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.623234335056</v>
+        <v>1218.623234335057</v>
       </c>
       <c r="O26" t="n">
         <v>1465.587697007408</v>
@@ -6245,19 +6245,19 @@
         <v>1663.092768286574</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.292413200209</v>
+        <v>1786.29241320021</v>
       </c>
       <c r="R26" t="n">
         <v>1804.829217230179</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.284789810545</v>
+        <v>1790.284789810544</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.615984973873</v>
+        <v>1780.615984973872</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.930001674769</v>
+        <v>1742.930001674768</v>
       </c>
       <c r="V26" t="n">
         <v>1633.799355170614</v>
@@ -6269,7 +6269,7 @@
         <v>1359.053606705569</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.896915949599</v>
+        <v>1187.896915949598</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>346.7647927710342</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C27" t="n">
-        <v>346.7647927710342</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D27" t="n">
-        <v>346.7647927710342</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E27" t="n">
-        <v>346.7647927710342</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F27" t="n">
-        <v>186.3370764882783</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G27" t="n">
         <v>36.09658434460358</v>
@@ -6306,49 +6306,49 @@
         <v>36.09658434460358</v>
       </c>
       <c r="K27" t="n">
-        <v>75.10177976570375</v>
+        <v>75.10177976570372</v>
       </c>
       <c r="L27" t="n">
         <v>193.8356208840663</v>
       </c>
       <c r="M27" t="n">
-        <v>377.1470773731669</v>
+        <v>377.1470773731668</v>
       </c>
       <c r="N27" t="n">
-        <v>583.730132222151</v>
+        <v>583.7301322221509</v>
       </c>
       <c r="O27" t="n">
-        <v>716.9661857729278</v>
+        <v>716.9661857729276</v>
       </c>
       <c r="P27" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992856</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992856</v>
       </c>
       <c r="R27" t="n">
-        <v>666.1514850647809</v>
+        <v>801.8233632992856</v>
       </c>
       <c r="S27" t="n">
-        <v>666.1514850647809</v>
+        <v>801.8233632992856</v>
       </c>
       <c r="T27" t="n">
-        <v>664.0260194740605</v>
+        <v>799.6978977085653</v>
       </c>
       <c r="U27" t="n">
-        <v>639.3924869889648</v>
+        <v>775.0643652234697</v>
       </c>
       <c r="V27" t="n">
-        <v>611.3031159330427</v>
+        <v>531.9846471271038</v>
       </c>
       <c r="W27" t="n">
-        <v>556.8948937037778</v>
+        <v>266.2549247521357</v>
       </c>
       <c r="X27" t="n">
-        <v>552.377246360918</v>
+        <v>261.7372774092759</v>
       </c>
       <c r="Y27" t="n">
-        <v>346.7647927710342</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="28">
@@ -6367,64 +6367,64 @@
         <v>36.09658434460358</v>
       </c>
       <c r="E28" t="n">
-        <v>106.5492436788398</v>
+        <v>75.59320118812045</v>
       </c>
       <c r="F28" t="n">
-        <v>169.1611869534406</v>
+        <v>75.59320118812045</v>
       </c>
       <c r="G28" t="n">
-        <v>169.1611869534406</v>
+        <v>75.59320118812045</v>
       </c>
       <c r="H28" t="n">
-        <v>169.1611869534406</v>
+        <v>75.59320118812045</v>
       </c>
       <c r="I28" t="n">
-        <v>169.1611869534406</v>
+        <v>75.59320118812045</v>
       </c>
       <c r="J28" t="n">
-        <v>261.2184455169723</v>
+        <v>75.59320118812045</v>
       </c>
       <c r="K28" t="n">
-        <v>261.2184455169723</v>
+        <v>75.59320118812045</v>
       </c>
       <c r="L28" t="n">
-        <v>261.2184455169723</v>
+        <v>75.59320118812045</v>
       </c>
       <c r="M28" t="n">
-        <v>261.2184455169723</v>
+        <v>75.59320118812045</v>
       </c>
       <c r="N28" t="n">
-        <v>261.2184455169723</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="O28" t="n">
-        <v>261.2184455169723</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="P28" t="n">
-        <v>261.2184455169723</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.2184455169723</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7780407246701</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0483630772727</v>
+        <v>248.0483630772721</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0405152401896</v>
+        <v>237.0405152401891</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4588835527236</v>
+        <v>160.4588835527232</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8643667704907</v>
+        <v>127.8643667704904</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61157533685842</v>
+        <v>49.61157533685819</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44085630837034</v>
+        <v>40.44085630837022</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09658434460358</v>
@@ -6446,31 +6446,31 @@
         <v>760.075131413113</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8342541488739</v>
+        <v>599.8342541488738</v>
       </c>
       <c r="F29" t="n">
         <v>407.5526318559707</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4864210616375</v>
+        <v>199.4864210616374</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07610855563379</v>
+        <v>64.07610855563382</v>
       </c>
       <c r="I29" t="n">
         <v>36.09658434460358</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8183046963238</v>
+        <v>171.8183046963237</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4043607994714</v>
+        <v>377.4043607994713</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7402271432942</v>
+        <v>636.7402271432941</v>
       </c>
       <c r="M29" t="n">
-        <v>930.431602541188</v>
+        <v>930.4316025411879</v>
       </c>
       <c r="N29" t="n">
         <v>1218.623234335057</v>
@@ -6479,7 +6479,7 @@
         <v>1465.587697007408</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.092768286575</v>
+        <v>1663.092768286574</v>
       </c>
       <c r="Q29" t="n">
         <v>1786.29241320021</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>386.2889748506081</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="C30" t="n">
-        <v>196.8767005835718</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09658434460358</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09658434460358</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="F30" t="n">
         <v>36.09658434460358</v>
@@ -6543,49 +6543,49 @@
         <v>36.09658434460358</v>
       </c>
       <c r="K30" t="n">
-        <v>75.10177976570375</v>
+        <v>75.10177976570372</v>
       </c>
       <c r="L30" t="n">
         <v>193.8356208840663</v>
       </c>
       <c r="M30" t="n">
-        <v>377.1470773731669</v>
+        <v>377.1470773731668</v>
       </c>
       <c r="N30" t="n">
-        <v>583.730132222151</v>
+        <v>583.7301322221509</v>
       </c>
       <c r="O30" t="n">
-        <v>716.9661857729278</v>
+        <v>716.9661857729276</v>
       </c>
       <c r="P30" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992856</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992856</v>
       </c>
       <c r="R30" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992856</v>
       </c>
       <c r="S30" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992856</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6978977085654</v>
+        <v>748.8041138456181</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0643652234697</v>
+        <v>724.1705813605224</v>
       </c>
       <c r="V30" t="n">
-        <v>531.9846471271038</v>
+        <v>481.0908632641564</v>
       </c>
       <c r="W30" t="n">
-        <v>477.576424897839</v>
+        <v>426.6826410348916</v>
       </c>
       <c r="X30" t="n">
-        <v>473.0587775549792</v>
+        <v>207.174646651588</v>
       </c>
       <c r="Y30" t="n">
-        <v>386.2889748506081</v>
+        <v>196.5243006273595</v>
       </c>
     </row>
     <row r="31">
@@ -6610,37 +6610,37 @@
         <v>36.09658434460358</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09658434460358</v>
+        <v>79.80026550808107</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09658434460358</v>
+        <v>93.50061180488893</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09658434460358</v>
+        <v>93.50061180488893</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09658434460358</v>
+        <v>185.5578703684207</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09658434460358</v>
+        <v>185.5578703684207</v>
       </c>
       <c r="L31" t="n">
-        <v>215.7825269532048</v>
+        <v>185.5578703684207</v>
       </c>
       <c r="M31" t="n">
-        <v>215.7825269532048</v>
+        <v>185.5578703684207</v>
       </c>
       <c r="N31" t="n">
-        <v>215.7825269532048</v>
+        <v>185.5578703684207</v>
       </c>
       <c r="O31" t="n">
-        <v>215.7825269532048</v>
+        <v>185.5578703684207</v>
       </c>
       <c r="P31" t="n">
-        <v>215.7825269532048</v>
+        <v>185.5578703684207</v>
       </c>
       <c r="Q31" t="n">
-        <v>261.2184455169717</v>
+        <v>270.7780407246696</v>
       </c>
       <c r="R31" t="n">
         <v>270.7780407246696</v>
@@ -6677,34 +6677,34 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2687840112827</v>
+        <v>886.2687840112824</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0751314131131</v>
+        <v>760.0751314131128</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8342541488739</v>
+        <v>599.8342541488736</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5526318559708</v>
+        <v>407.5526318559704</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4864210616375</v>
+        <v>199.4864210616372</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07610855563394</v>
+        <v>64.07610855563385</v>
       </c>
       <c r="I32" t="n">
         <v>36.09658434460358</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8183046963237</v>
+        <v>171.818304696324</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4043607994713</v>
+        <v>377.4043607994718</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7402271432943</v>
+        <v>636.7402271432944</v>
       </c>
       <c r="M32" t="n">
         <v>930.4316025411881</v>
@@ -6731,16 +6731,16 @@
         <v>1780.615984973872</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.930001674769</v>
+        <v>1742.930001674768</v>
       </c>
       <c r="V32" t="n">
         <v>1633.799355170614</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.480142791092</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.05360670557</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.896915949599</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>357.3044168663278</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C33" t="n">
-        <v>357.3044168663278</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D33" t="n">
-        <v>196.5243006273595</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E33" t="n">
-        <v>196.5243006273595</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F33" t="n">
         <v>36.09658434460358</v>
@@ -6780,49 +6780,49 @@
         <v>36.09658434460358</v>
       </c>
       <c r="K33" t="n">
-        <v>75.10177976570375</v>
+        <v>75.10177976570372</v>
       </c>
       <c r="L33" t="n">
         <v>193.8356208840663</v>
       </c>
       <c r="M33" t="n">
-        <v>377.1470773731669</v>
+        <v>377.1470773731668</v>
       </c>
       <c r="N33" t="n">
-        <v>583.730132222151</v>
+        <v>583.7301322221509</v>
       </c>
       <c r="O33" t="n">
-        <v>716.9661857729278</v>
+        <v>716.9661857729276</v>
       </c>
       <c r="P33" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992856</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992856</v>
       </c>
       <c r="R33" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992856</v>
       </c>
       <c r="S33" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992856</v>
       </c>
       <c r="T33" t="n">
-        <v>799.6978977085654</v>
+        <v>799.6978977085652</v>
       </c>
       <c r="U33" t="n">
-        <v>669.9603505590469</v>
+        <v>775.0643652234695</v>
       </c>
       <c r="V33" t="n">
-        <v>426.880632462681</v>
+        <v>746.9749941675474</v>
       </c>
       <c r="W33" t="n">
-        <v>372.4724102334161</v>
+        <v>481.2452717925796</v>
       </c>
       <c r="X33" t="n">
-        <v>367.9547628905563</v>
+        <v>261.7372774092759</v>
       </c>
       <c r="Y33" t="n">
-        <v>357.3044168663278</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="34">
@@ -6853,10 +6853,10 @@
         <v>36.09658434460358</v>
       </c>
       <c r="I34" t="n">
-        <v>83.76685469911378</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J34" t="n">
-        <v>125.7972304216913</v>
+        <v>128.1538429081353</v>
       </c>
       <c r="K34" t="n">
         <v>270.7780407246697</v>
@@ -6929,43 +6929,43 @@
         <v>145.4609201114951</v>
       </c>
       <c r="H35" t="n">
-        <v>33.6815653919842</v>
+        <v>33.68156539198422</v>
       </c>
       <c r="I35" t="n">
         <v>29.33299896744629</v>
       </c>
       <c r="J35" t="n">
-        <v>89.2076297865992</v>
+        <v>188.2154210457076</v>
       </c>
       <c r="K35" t="n">
-        <v>317.9543876162879</v>
+        <v>322.255647058903</v>
       </c>
       <c r="L35" t="n">
-        <v>600.4509556866518</v>
+        <v>370.8794742683867</v>
       </c>
       <c r="M35" t="n">
-        <v>917.3030328110867</v>
+        <v>687.7315513928215</v>
       </c>
       <c r="N35" t="n">
-        <v>1228.655366331497</v>
+        <v>999.0838849132315</v>
       </c>
       <c r="O35" t="n">
-        <v>1264.907789869509</v>
+        <v>1035.336308451244</v>
       </c>
       <c r="P35" t="n">
-        <v>1264.907789869509</v>
+        <v>1256.002081456952</v>
       </c>
       <c r="Q35" t="n">
-        <v>1411.268136509686</v>
+        <v>1402.362428097128</v>
       </c>
       <c r="R35" t="n">
-        <v>1452.965642266196</v>
+        <v>1444.059933853638</v>
       </c>
       <c r="S35" t="n">
-        <v>1452.965642266196</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="T35" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U35" t="n">
         <v>1452.594922859703</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>524.104035367756</v>
+        <v>637.6347164968881</v>
       </c>
       <c r="C36" t="n">
-        <v>524.104035367756</v>
+        <v>448.2224422298518</v>
       </c>
       <c r="D36" t="n">
-        <v>363.3239191287877</v>
+        <v>448.2224422298518</v>
       </c>
       <c r="E36" t="n">
-        <v>189.7607152502022</v>
+        <v>448.2224422298518</v>
       </c>
       <c r="F36" t="n">
-        <v>29.33299896744629</v>
+        <v>287.7947259470959</v>
       </c>
       <c r="G36" t="n">
-        <v>29.33299896744629</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="H36" t="n">
-        <v>29.33299896744629</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="I36" t="n">
         <v>29.33299896744629</v>
@@ -7017,49 +7017,49 @@
         <v>29.33299896744629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.33819438854647</v>
+        <v>68.33819438854643</v>
       </c>
       <c r="L36" t="n">
-        <v>187.0720355069091</v>
+        <v>187.072035506909</v>
       </c>
       <c r="M36" t="n">
-        <v>370.3834919960096</v>
+        <v>370.3834919960095</v>
       </c>
       <c r="N36" t="n">
-        <v>576.9665468449938</v>
+        <v>576.9665468449937</v>
       </c>
       <c r="O36" t="n">
-        <v>710.2026003957706</v>
+        <v>710.2026003957703</v>
       </c>
       <c r="P36" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="Q36" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="R36" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="S36" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="T36" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="U36" t="n">
-        <v>559.3397130799583</v>
+        <v>794.057203223525</v>
       </c>
       <c r="V36" t="n">
-        <v>554.8812998105285</v>
+        <v>668.4119809396607</v>
       </c>
       <c r="W36" t="n">
-        <v>524.104035367756</v>
+        <v>637.6347164968881</v>
       </c>
       <c r="X36" t="n">
-        <v>524.104035367756</v>
+        <v>637.6347164968881</v>
       </c>
       <c r="Y36" t="n">
-        <v>524.104035367756</v>
+        <v>637.6347164968881</v>
       </c>
     </row>
     <row r="37">
@@ -7090,13 +7090,13 @@
         <v>29.33299896744629</v>
       </c>
       <c r="I37" t="n">
-        <v>29.33299896744629</v>
+        <v>100.1639710484976</v>
       </c>
       <c r="J37" t="n">
-        <v>29.33299896744629</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="K37" t="n">
-        <v>29.33299896744629</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="L37" t="n">
         <v>145.8690655113003</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>852.8410737358895</v>
+        <v>852.8410737358902</v>
       </c>
       <c r="C38" t="n">
-        <v>737.7194519151702</v>
+        <v>737.719451915171</v>
       </c>
       <c r="D38" t="n">
-        <v>635.156757103493</v>
+        <v>635.1567571034938</v>
       </c>
       <c r="E38" t="n">
-        <v>498.5468376257462</v>
+        <v>498.546837625747</v>
       </c>
       <c r="F38" t="n">
-        <v>329.8961731193354</v>
+        <v>329.8961731193365</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4609201114945</v>
+        <v>145.4609201114955</v>
       </c>
       <c r="H38" t="n">
-        <v>33.68156539198419</v>
+        <v>33.68156539198421</v>
       </c>
       <c r="I38" t="n">
         <v>29.33299896744628</v>
@@ -7178,19 +7178,19 @@
         <v>416.9621788753963</v>
       </c>
       <c r="L38" t="n">
-        <v>699.4587469457601</v>
+        <v>465.58600608488</v>
       </c>
       <c r="M38" t="n">
-        <v>1016.310824070195</v>
+        <v>548.5653423484347</v>
       </c>
       <c r="N38" t="n">
-        <v>1145.444231553408</v>
+        <v>765.2111440523511</v>
       </c>
       <c r="O38" t="n">
-        <v>1181.69665509142</v>
+        <v>1035.336308451244</v>
       </c>
       <c r="P38" t="n">
-        <v>1402.362428097128</v>
+        <v>1256.002081456951</v>
       </c>
       <c r="Q38" t="n">
         <v>1402.362428097128</v>
@@ -7205,19 +7205,19 @@
         <v>1466.649948372314</v>
       </c>
       <c r="U38" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859703</v>
       </c>
       <c r="V38" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142041</v>
       </c>
       <c r="W38" t="n">
         <v>1264.40697954901</v>
       </c>
       <c r="X38" t="n">
-        <v>1139.61140124998</v>
+        <v>1139.611401249981</v>
       </c>
       <c r="Y38" t="n">
-        <v>992.0856682805022</v>
+        <v>992.0856682805029</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.33299896744628</v>
+        <v>300.6922263010829</v>
       </c>
       <c r="C39" t="n">
-        <v>29.33299896744628</v>
+        <v>300.6922263010829</v>
       </c>
       <c r="D39" t="n">
-        <v>29.33299896744628</v>
+        <v>264.4962354682987</v>
       </c>
       <c r="E39" t="n">
-        <v>29.33299896744628</v>
+        <v>264.4962354682987</v>
       </c>
       <c r="F39" t="n">
-        <v>29.33299896744628</v>
+        <v>264.4962354682987</v>
       </c>
       <c r="G39" t="n">
-        <v>29.33299896744628</v>
+        <v>264.4962354682987</v>
       </c>
       <c r="H39" t="n">
-        <v>29.33299896744628</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="I39" t="n">
         <v>29.33299896744628</v>
@@ -7254,49 +7254,49 @@
         <v>29.33299896744628</v>
       </c>
       <c r="K39" t="n">
-        <v>68.33819438854646</v>
+        <v>68.33819438854643</v>
       </c>
       <c r="L39" t="n">
-        <v>187.0720355069091</v>
+        <v>187.072035506909</v>
       </c>
       <c r="M39" t="n">
-        <v>370.3834919960096</v>
+        <v>370.3834919960095</v>
       </c>
       <c r="N39" t="n">
-        <v>576.9665468449938</v>
+        <v>576.9665468449937</v>
       </c>
       <c r="O39" t="n">
-        <v>710.2026003957706</v>
+        <v>710.2026003957703</v>
       </c>
       <c r="P39" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="Q39" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="R39" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="S39" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="T39" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="U39" t="n">
-        <v>794.0572032235252</v>
+        <v>794.057203223525</v>
       </c>
       <c r="V39" t="n">
-        <v>683.7948037851299</v>
+        <v>550.9774851271591</v>
       </c>
       <c r="W39" t="n">
-        <v>653.0175393423574</v>
+        <v>520.2002206843865</v>
       </c>
       <c r="X39" t="n">
-        <v>433.5095449590538</v>
+        <v>300.6922263010829</v>
       </c>
       <c r="Y39" t="n">
-        <v>207.8688518943814</v>
+        <v>300.6922263010829</v>
       </c>
     </row>
     <row r="40">
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.33299896744628</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="C40" t="n">
-        <v>29.33299896744628</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="D40" t="n">
-        <v>29.33299896744628</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="E40" t="n">
-        <v>29.33299896744628</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="F40" t="n">
-        <v>29.33299896744628</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="G40" t="n">
-        <v>29.33299896744628</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="H40" t="n">
-        <v>29.33299896744628</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="I40" t="n">
-        <v>29.33299896744628</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="J40" t="n">
-        <v>29.33299896744628</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="K40" t="n">
-        <v>145.8690655113003</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="L40" t="n">
-        <v>145.8690655113003</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="M40" t="n">
-        <v>145.8690655113003</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="N40" t="n">
-        <v>145.8690655113003</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="O40" t="n">
-        <v>145.8690655113003</v>
+        <v>62.40835974901971</v>
       </c>
       <c r="P40" t="n">
         <v>145.8690655113003</v>
@@ -7372,10 +7372,10 @@
         <v>29.33299896744628</v>
       </c>
       <c r="X40" t="n">
-        <v>29.33299896744628</v>
+        <v>43.50547897416631</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.33299896744628</v>
+        <v>62.40835974901971</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>737.7194519151708</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1567571034936</v>
+        <v>635.1567571034935</v>
       </c>
       <c r="E41" t="n">
         <v>498.5468376257468</v>
       </c>
       <c r="F41" t="n">
-        <v>329.8961731193357</v>
+        <v>329.896173119336</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4609201114947</v>
+        <v>145.4609201114954</v>
       </c>
       <c r="H41" t="n">
         <v>33.68156539198419</v>
@@ -7412,49 +7412,49 @@
         <v>188.2154210457076</v>
       </c>
       <c r="K41" t="n">
-        <v>188.2154210457076</v>
+        <v>416.9621788753963</v>
       </c>
       <c r="L41" t="n">
-        <v>333.9702942167499</v>
+        <v>465.58600608488</v>
       </c>
       <c r="M41" t="n">
-        <v>650.8223713411849</v>
+        <v>782.438083209315</v>
       </c>
       <c r="N41" t="n">
-        <v>962.1747048615948</v>
+        <v>1093.790416729725</v>
       </c>
       <c r="O41" t="n">
-        <v>1232.299869260487</v>
+        <v>1130.042840267737</v>
       </c>
       <c r="P41" t="n">
-        <v>1452.965642266195</v>
+        <v>1350.708613273445</v>
       </c>
       <c r="Q41" t="n">
-        <v>1452.965642266195</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="R41" t="n">
-        <v>1452.965642266195</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="S41" t="n">
-        <v>1452.965642266195</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="T41" t="n">
         <v>1466.649948372314</v>
       </c>
       <c r="U41" t="n">
-        <v>1452.594922859703</v>
+        <v>1452.594922859702</v>
       </c>
       <c r="V41" t="n">
-        <v>1367.095234142041</v>
+        <v>1367.09523414204</v>
       </c>
       <c r="W41" t="n">
         <v>1264.40697954901</v>
       </c>
       <c r="X41" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.61140124998</v>
       </c>
       <c r="Y41" t="n">
-        <v>992.0856682805027</v>
+        <v>992.0856682805025</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>300.6922263010831</v>
+        <v>392.3084771130681</v>
       </c>
       <c r="C42" t="n">
-        <v>189.7607152502022</v>
+        <v>202.8962028460318</v>
       </c>
       <c r="D42" t="n">
-        <v>189.7607152502022</v>
+        <v>202.8962028460318</v>
       </c>
       <c r="E42" t="n">
-        <v>189.7607152502022</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F42" t="n">
         <v>29.33299896744628</v>
@@ -7491,49 +7491,49 @@
         <v>29.33299896744628</v>
       </c>
       <c r="K42" t="n">
-        <v>68.33819438854646</v>
+        <v>68.33819438854643</v>
       </c>
       <c r="L42" t="n">
-        <v>187.0720355069091</v>
+        <v>187.072035506909</v>
       </c>
       <c r="M42" t="n">
-        <v>370.3834919960096</v>
+        <v>370.3834919960095</v>
       </c>
       <c r="N42" t="n">
-        <v>576.9665468449938</v>
+        <v>576.9665468449937</v>
       </c>
       <c r="O42" t="n">
-        <v>710.2026003957706</v>
+        <v>710.2026003957703</v>
       </c>
       <c r="P42" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="Q42" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="R42" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="S42" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="T42" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="U42" t="n">
-        <v>555.4358983965891</v>
+        <v>794.057203223525</v>
       </c>
       <c r="V42" t="n">
-        <v>550.9774851271593</v>
+        <v>789.5987899540953</v>
       </c>
       <c r="W42" t="n">
-        <v>520.2002206843867</v>
+        <v>758.8215255113229</v>
       </c>
       <c r="X42" t="n">
-        <v>300.6922263010831</v>
+        <v>570.8443300400031</v>
       </c>
       <c r="Y42" t="n">
-        <v>300.6922263010831</v>
+        <v>570.8443300400031</v>
       </c>
     </row>
     <row r="43">
@@ -7546,64 +7546,64 @@
         <v>29.33299896744628</v>
       </c>
       <c r="C43" t="n">
-        <v>29.33299896744628</v>
+        <v>98.41313066607383</v>
       </c>
       <c r="D43" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="E43" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="F43" t="n">
-        <v>125.6681264320642</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="G43" t="n">
-        <v>125.6681264320642</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="H43" t="n">
-        <v>125.6681264320642</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="I43" t="n">
-        <v>125.6681264320642</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="J43" t="n">
-        <v>125.6681264320642</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="K43" t="n">
-        <v>125.6681264320642</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="L43" t="n">
-        <v>125.6681264320642</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="M43" t="n">
-        <v>125.6681264320642</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="N43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="O43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="P43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="R43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="S43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="T43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="U43" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032667</v>
       </c>
       <c r="V43" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458618</v>
       </c>
       <c r="W43" t="n">
         <v>29.33299896744628</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.8410737358904</v>
+        <v>852.8410737358903</v>
       </c>
       <c r="C44" t="n">
-        <v>737.7194519151711</v>
+        <v>737.7194519151712</v>
       </c>
       <c r="D44" t="n">
-        <v>635.1567571034939</v>
+        <v>635.1567571034941</v>
       </c>
       <c r="E44" t="n">
-        <v>498.5468376257471</v>
+        <v>498.5468376257469</v>
       </c>
       <c r="F44" t="n">
-        <v>329.8961731193363</v>
+        <v>329.8961731193361</v>
       </c>
       <c r="G44" t="n">
-        <v>145.4609201114954</v>
+        <v>145.4609201114952</v>
       </c>
       <c r="H44" t="n">
         <v>33.68156539198419</v>
@@ -7649,31 +7649,31 @@
         <v>188.2154210457076</v>
       </c>
       <c r="K44" t="n">
-        <v>188.2154210457076</v>
+        <v>416.9621788753963</v>
       </c>
       <c r="L44" t="n">
-        <v>297.0513861538017</v>
+        <v>699.4587469457601</v>
       </c>
       <c r="M44" t="n">
-        <v>613.9034632782366</v>
+        <v>782.4380832093149</v>
       </c>
       <c r="N44" t="n">
-        <v>925.2557967986465</v>
+        <v>859.9176758688446</v>
       </c>
       <c r="O44" t="n">
-        <v>1195.380961197539</v>
+        <v>1044.242016863801</v>
       </c>
       <c r="P44" t="n">
-        <v>1416.046734203247</v>
+        <v>1264.907789869509</v>
       </c>
       <c r="Q44" t="n">
-        <v>1416.046734203247</v>
+        <v>1411.268136509685</v>
       </c>
       <c r="R44" t="n">
-        <v>1457.744239959757</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="S44" t="n">
-        <v>1466.649948372314</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="T44" t="n">
         <v>1466.649948372314</v>
@@ -7691,7 +7691,7 @@
         <v>1139.611401249981</v>
       </c>
       <c r="Y44" t="n">
-        <v>992.0856682805031</v>
+        <v>992.0856682805029</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>189.7607152502022</v>
+        <v>311.1174376820067</v>
       </c>
       <c r="C45" t="n">
-        <v>189.7607152502022</v>
+        <v>311.1174376820067</v>
       </c>
       <c r="D45" t="n">
-        <v>189.7607152502022</v>
+        <v>311.1174376820067</v>
       </c>
       <c r="E45" t="n">
-        <v>189.7607152502022</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="F45" t="n">
-        <v>29.33299896744628</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="G45" t="n">
-        <v>29.33299896744628</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="H45" t="n">
-        <v>29.33299896744628</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="I45" t="n">
         <v>29.33299896744628</v>
@@ -7728,49 +7728,49 @@
         <v>29.33299896744628</v>
       </c>
       <c r="K45" t="n">
-        <v>68.33819438854646</v>
+        <v>68.33819438854643</v>
       </c>
       <c r="L45" t="n">
-        <v>187.0720355069091</v>
+        <v>187.072035506909</v>
       </c>
       <c r="M45" t="n">
-        <v>370.3834919960096</v>
+        <v>370.3834919960095</v>
       </c>
       <c r="N45" t="n">
-        <v>576.9665468449938</v>
+        <v>576.9665468449937</v>
       </c>
       <c r="O45" t="n">
-        <v>710.2026003957706</v>
+        <v>710.2026003957703</v>
       </c>
       <c r="P45" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="Q45" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="R45" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="S45" t="n">
-        <v>643.1561254148791</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="T45" t="n">
-        <v>643.1561254148791</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="U45" t="n">
-        <v>642.1535507162757</v>
+        <v>794.057203223525</v>
       </c>
       <c r="V45" t="n">
-        <v>399.0738326199098</v>
+        <v>561.4026965080828</v>
       </c>
       <c r="W45" t="n">
-        <v>368.2965681771373</v>
+        <v>530.6254320653104</v>
       </c>
       <c r="X45" t="n">
-        <v>368.2965681771373</v>
+        <v>311.1174376820067</v>
       </c>
       <c r="Y45" t="n">
-        <v>368.2965681771373</v>
+        <v>311.1174376820067</v>
       </c>
     </row>
     <row r="46">
@@ -7780,67 +7780,67 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.25570445052291</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C46" t="n">
-        <v>52.25570445052291</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D46" t="n">
-        <v>52.25570445052291</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="L46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="M46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="N46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="O46" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="P46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="Q46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="R46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="S46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="T46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="U46" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032667</v>
       </c>
       <c r="V46" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458618</v>
       </c>
       <c r="W46" t="n">
         <v>29.33299896744628</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L12" t="n">
-        <v>162.1010486195506</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M12" t="n">
-        <v>201.1586111617382</v>
+        <v>201.1586111617383</v>
       </c>
       <c r="N12" t="n">
-        <v>186.4889234163775</v>
+        <v>183.072971205692</v>
       </c>
       <c r="O12" t="n">
         <v>205.185727832275</v>
       </c>
       <c r="P12" t="n">
-        <v>120.6495533449843</v>
+        <v>205.1943705594505</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9742862901104</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>204.9161881242767</v>
+        <v>204.9161881242768</v>
       </c>
       <c r="M15" t="n">
-        <v>201.1586111617382</v>
+        <v>201.1586111617383</v>
       </c>
       <c r="N15" t="n">
-        <v>183.0729712056919</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O15" t="n">
-        <v>205.185727832275</v>
+        <v>162.3705883275489</v>
       </c>
       <c r="P15" t="n">
-        <v>120.6495533449843</v>
+        <v>120.6495533449844</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9246,10 +9246,10 @@
         <v>131.9742862901104</v>
       </c>
       <c r="L18" t="n">
-        <v>201.5002359135912</v>
+        <v>201.5002359135913</v>
       </c>
       <c r="M18" t="n">
-        <v>116.6137939472721</v>
+        <v>201.1586111617383</v>
       </c>
       <c r="N18" t="n">
         <v>186.4889234163775</v>
@@ -9258,7 +9258,7 @@
         <v>205.185727832275</v>
       </c>
       <c r="P18" t="n">
-        <v>205.1943705594504</v>
+        <v>120.6495533449844</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,19 +9483,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>204.9161881242767</v>
+        <v>204.9161881242768</v>
       </c>
       <c r="M21" t="n">
-        <v>116.6137939472721</v>
+        <v>201.1586111617383</v>
       </c>
       <c r="N21" t="n">
         <v>186.4889234163775</v>
       </c>
       <c r="O21" t="n">
-        <v>205.185727832275</v>
+        <v>162.3705883275489</v>
       </c>
       <c r="P21" t="n">
-        <v>162.3792310547243</v>
+        <v>120.6495533449844</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9742862901104</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>204.9161881242767</v>
+        <v>162.1010486195507</v>
       </c>
       <c r="M24" t="n">
-        <v>116.6137939472721</v>
+        <v>201.1586111617383</v>
       </c>
       <c r="N24" t="n">
-        <v>186.4889234163775</v>
+        <v>101.9441062019114</v>
       </c>
       <c r="O24" t="n">
-        <v>201.7697756215895</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P24" t="n">
-        <v>205.1943705594504</v>
+        <v>205.1943705594505</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.9757986516687</v>
+        <v>85.43098143720268</v>
       </c>
       <c r="C11" t="n">
-        <v>146.0940556550142</v>
+        <v>146.0940556550143</v>
       </c>
       <c r="D11" t="n">
-        <v>133.6607179160626</v>
+        <v>133.6607179160627</v>
       </c>
       <c r="E11" t="n">
-        <v>167.3674703354715</v>
+        <v>138.9385206429575</v>
       </c>
       <c r="F11" t="n">
-        <v>114.5429906993827</v>
+        <v>199.0878079138489</v>
       </c>
       <c r="G11" t="n">
-        <v>214.7145505302647</v>
+        <v>130.1697333157987</v>
       </c>
       <c r="H11" t="n">
-        <v>58.24039401035219</v>
+        <v>142.7852112248184</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.4287308127948</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.12798498931291</v>
+        <v>23.12798498931303</v>
       </c>
       <c r="T11" t="n">
-        <v>18.30111863217994</v>
+        <v>18.30111863218005</v>
       </c>
       <c r="U11" t="n">
-        <v>7.999781120280481</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>32.22352466852126</v>
+        <v>32.22352466852138</v>
       </c>
       <c r="W11" t="n">
-        <v>133.7850220996022</v>
+        <v>133.7850220996023</v>
       </c>
       <c r="X11" t="n">
-        <v>155.6712725685415</v>
+        <v>155.6712725685416</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1741256922852</v>
+        <v>178.1741256922853</v>
       </c>
     </row>
     <row r="12">
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.654448148704574</v>
+        <v>1.654448148704674</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.9757986516688</v>
+        <v>85.43098143720265</v>
       </c>
       <c r="C14" t="n">
         <v>146.0940556550142</v>
@@ -23501,19 +23501,19 @@
         <v>133.6607179160627</v>
       </c>
       <c r="E14" t="n">
-        <v>167.3674703354716</v>
+        <v>82.82265312100547</v>
       </c>
       <c r="F14" t="n">
-        <v>114.5429906993828</v>
+        <v>199.0878079138489</v>
       </c>
       <c r="G14" t="n">
-        <v>130.1697333157987</v>
+        <v>214.7145505302647</v>
       </c>
       <c r="H14" t="n">
         <v>142.7852112248184</v>
       </c>
       <c r="I14" t="n">
-        <v>36.42873081279476</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.12798498931301</v>
+        <v>23.127984989313</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.30111863218002</v>
       </c>
       <c r="U14" t="n">
         <v>46.03812530998763</v>
       </c>
       <c r="V14" t="n">
-        <v>60.60238551266576</v>
+        <v>116.7683418829874</v>
       </c>
       <c r="W14" t="n">
-        <v>133.7850220996023</v>
+        <v>49.24020488513621</v>
       </c>
       <c r="X14" t="n">
         <v>155.6712725685416</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.62930847781922</v>
+        <v>140.1357815025784</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>943127.9678060117</v>
+        <v>943127.9678060114</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>943127.9678060117</v>
+        <v>943127.9678060116</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>573255.7968646989</v>
+      </c>
+      <c r="C2" t="n">
+        <v>573255.796864699</v>
+      </c>
+      <c r="D2" t="n">
         <v>573255.7968646991</v>
       </c>
-      <c r="C2" t="n">
-        <v>573255.7968646991</v>
-      </c>
-      <c r="D2" t="n">
-        <v>573255.7968646992</v>
-      </c>
       <c r="E2" t="n">
-        <v>493993.557863311</v>
+        <v>493993.5578633107</v>
       </c>
       <c r="F2" t="n">
-        <v>493993.5578633108</v>
+        <v>493993.5578633107</v>
       </c>
       <c r="G2" t="n">
         <v>574417.0567580484</v>
@@ -26332,28 +26332,28 @@
         <v>574417.0567580481</v>
       </c>
       <c r="I2" t="n">
-        <v>574417.0567580482</v>
+        <v>574417.0567580479</v>
       </c>
       <c r="J2" t="n">
         <v>574417.0567580492</v>
       </c>
       <c r="K2" t="n">
-        <v>574417.0567580491</v>
+        <v>574417.0567580489</v>
       </c>
       <c r="L2" t="n">
-        <v>574417.0567580488</v>
+        <v>574417.0567580487</v>
       </c>
       <c r="M2" t="n">
         <v>574417.0567580487</v>
       </c>
       <c r="N2" t="n">
-        <v>574417.0567580491</v>
+        <v>574417.0567580486</v>
       </c>
       <c r="O2" t="n">
-        <v>574417.0567580488</v>
+        <v>574417.0567580487</v>
       </c>
       <c r="P2" t="n">
-        <v>574417.0567580486</v>
+        <v>574417.0567580487</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272248.0407556372</v>
+        <v>272248.040755637</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>105057.1604753343</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65215.19438069724</v>
+        <v>65215.19438069727</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,22 +26427,22 @@
         <v>382892.3279665352</v>
       </c>
       <c r="F4" t="n">
-        <v>382892.3279665352</v>
+        <v>382892.3279665351</v>
       </c>
       <c r="G4" t="n">
         <v>453420.587080977</v>
       </c>
       <c r="H4" t="n">
+        <v>453420.5870809769</v>
+      </c>
+      <c r="I4" t="n">
         <v>453420.587080977</v>
       </c>
-      <c r="I4" t="n">
-        <v>453420.5870809769</v>
-      </c>
       <c r="J4" t="n">
+        <v>453902.5702029474</v>
+      </c>
+      <c r="K4" t="n">
         <v>453902.5702029473</v>
-      </c>
-      <c r="K4" t="n">
-        <v>453902.5702029474</v>
       </c>
       <c r="L4" t="n">
         <v>453902.5702029474</v>
@@ -26457,7 +26457,7 @@
         <v>453523.1062128386</v>
       </c>
       <c r="P4" t="n">
-        <v>453523.1062128385</v>
+        <v>453523.1062128386</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24571.35877862008</v>
+        <v>24571.35877862007</v>
       </c>
       <c r="F5" t="n">
-        <v>24571.35877862008</v>
+        <v>24571.35877862007</v>
       </c>
       <c r="G5" t="n">
-        <v>35611.42180862118</v>
+        <v>35611.42180862117</v>
       </c>
       <c r="H5" t="n">
-        <v>35611.42180862118</v>
+        <v>35611.42180862117</v>
       </c>
       <c r="I5" t="n">
-        <v>35611.42180862118</v>
+        <v>35611.42180862117</v>
       </c>
       <c r="J5" t="n">
-        <v>47598.27644989196</v>
+        <v>47598.27644989197</v>
       </c>
       <c r="K5" t="n">
         <v>47598.27644989197</v>
@@ -26503,13 +26503,13 @@
         <v>44424.71624350353</v>
       </c>
       <c r="N5" t="n">
-        <v>44424.71624350353</v>
+        <v>44424.71624350352</v>
       </c>
       <c r="O5" t="n">
-        <v>44424.71624350353</v>
+        <v>44424.71624350352</v>
       </c>
       <c r="P5" t="n">
-        <v>44424.71624350353</v>
+        <v>44424.71624350352</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51220.52710718374</v>
+        <v>51216.06072297832</v>
       </c>
       <c r="C6" t="n">
-        <v>51220.52710718374</v>
+        <v>51216.06072297844</v>
       </c>
       <c r="D6" t="n">
-        <v>51220.52710718386</v>
+        <v>51216.06072297855</v>
       </c>
       <c r="E6" t="n">
-        <v>-185718.1696374814</v>
+        <v>-186027.4907870768</v>
       </c>
       <c r="F6" t="n">
-        <v>86529.8711181556</v>
+        <v>86220.5499685604</v>
       </c>
       <c r="G6" t="n">
-        <v>-19672.11260688407</v>
+        <v>-19672.11260688412</v>
       </c>
       <c r="H6" t="n">
-        <v>85385.04786844997</v>
+        <v>85385.04786845003</v>
       </c>
       <c r="I6" t="n">
-        <v>85385.04786845014</v>
+        <v>85385.04786844974</v>
       </c>
       <c r="J6" t="n">
-        <v>-88234.0240484688</v>
+        <v>-88234.02404846891</v>
       </c>
       <c r="K6" t="n">
-        <v>72916.21010520973</v>
+        <v>72916.21010520967</v>
       </c>
       <c r="L6" t="n">
-        <v>-32140.95037012477</v>
+        <v>-32140.95037012489</v>
       </c>
       <c r="M6" t="n">
         <v>57753.51573480465</v>
       </c>
       <c r="N6" t="n">
-        <v>76469.23430170698</v>
+        <v>76469.23430170651</v>
       </c>
       <c r="O6" t="n">
-        <v>11254.03992100953</v>
+        <v>11254.03992100937</v>
       </c>
       <c r="P6" t="n">
-        <v>76469.23430170657</v>
+        <v>76469.23430170663</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="F2" t="n">
         <v>204.1114417261646</v>
@@ -26707,7 +26707,7 @@
         <v>335.4328923203324</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="K2" t="n">
         <v>212.8404435700394</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="F3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="G3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="H3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="I3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="J3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="K3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="L3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="M3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="N3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="O3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="P3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="F4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="G4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="H4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="I4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="J4" t="n">
         <v>451.2073043075447</v>
@@ -26820,7 +26820,7 @@
         <v>451.2073043075447</v>
       </c>
       <c r="M4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930786</v>
       </c>
       <c r="N4" t="n">
         <v>366.6624870930785</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>131.3214505941679</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587156</v>
+        <v>81.51899297587158</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.201334747872</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930786</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>131.3214505941679</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,37 +28087,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="C11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="D11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="E11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="F11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="G11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="H11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="I11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="J11" t="n">
-        <v>75.74779675012002</v>
+        <v>152.7027579678916</v>
       </c>
       <c r="K11" t="n">
-        <v>56.69792425098994</v>
+        <v>5.177760637567118</v>
       </c>
       <c r="L11" t="n">
-        <v>35.4298402351896</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.34037157088127</v>
+        <v>13.34037157088132</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.39635779869052</v>
+        <v>88.39635779869054</v>
       </c>
       <c r="R11" t="n">
-        <v>194.1163990953234</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="S11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="T11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="U11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="V11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="X11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>87.28275462533357</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28187,10 +28187,10 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I12" t="n">
-        <v>22.59420527314903</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J12" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28220,22 +28220,22 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T12" t="n">
-        <v>142.1466165623955</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="U12" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="V12" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="W12" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="X12" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.1114417261647</v>
+        <v>142.146616562396</v>
       </c>
     </row>
     <row r="13">
@@ -28251,16 +28251,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>179.4655972057843</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6953110816783</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="H13" t="n">
         <v>165.7758191012691</v>
@@ -28275,46 +28275,46 @@
         <v>150.939997852204</v>
       </c>
       <c r="L13" t="n">
-        <v>81.6783113329499</v>
+        <v>31.33949144013924</v>
       </c>
       <c r="M13" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515812</v>
       </c>
       <c r="N13" t="n">
-        <v>15.68403999776785</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O13" t="n">
-        <v>121.2514114901321</v>
+        <v>36.70659427566598</v>
       </c>
       <c r="P13" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="R13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="S13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="T13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="U13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="V13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="X13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261645</v>
       </c>
     </row>
     <row r="14">
@@ -28348,16 +28348,16 @@
         <v>204.1114417261646</v>
       </c>
       <c r="J14" t="n">
-        <v>77.42567754712833</v>
+        <v>75.74779675012003</v>
       </c>
       <c r="K14" t="n">
-        <v>5.177760637567083</v>
+        <v>5.177760637567118</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7273058371380188</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28366,13 +28366,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>97.88518878534737</v>
+        <v>13.34037157088132</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.39635779869052</v>
+        <v>165.351319016462</v>
       </c>
       <c r="R14" t="n">
-        <v>194.1163990953234</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="S14" t="n">
         <v>204.1114417261646</v>
@@ -28415,19 +28415,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>74.27862190546224</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7380872222379</v>
+        <v>64.19327000777183</v>
       </c>
       <c r="H15" t="n">
         <v>125.6725816482287</v>
       </c>
       <c r="I15" t="n">
-        <v>39.13666300024045</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J15" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.037534323606003</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.3151594521598</v>
@@ -28457,7 +28457,7 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T15" t="n">
-        <v>204.1114417261646</v>
+        <v>142.1466165623959</v>
       </c>
       <c r="U15" t="n">
         <v>204.1114417261646</v>
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204.1114417261646</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="E16" t="n">
         <v>204.1114417261646</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="G16" t="n">
         <v>168.6953110816783</v>
@@ -28503,34 +28503,34 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I16" t="n">
+        <v>191.5894633850438</v>
+      </c>
+      <c r="J16" t="n">
         <v>204.1114417261646</v>
       </c>
-      <c r="J16" t="n">
-        <v>119.8533137078861</v>
-      </c>
       <c r="K16" t="n">
-        <v>150.939997852204</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L16" t="n">
-        <v>115.8843086546053</v>
+        <v>31.33949144013924</v>
       </c>
       <c r="M16" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515812</v>
       </c>
       <c r="N16" t="n">
-        <v>15.68403999776785</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O16" t="n">
-        <v>36.70659427566596</v>
+        <v>36.70659427566598</v>
       </c>
       <c r="P16" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7594634122123</v>
       </c>
       <c r="R16" t="n">
-        <v>203.4496319647879</v>
+        <v>203.184286794587</v>
       </c>
       <c r="S16" t="n">
         <v>204.1114417261646</v>
@@ -28582,34 +28582,34 @@
         <v>335.4328923203324</v>
       </c>
       <c r="I17" t="n">
-        <v>240.5401725389593</v>
+        <v>240.5401725389594</v>
       </c>
       <c r="J17" t="n">
-        <v>75.74779675012002</v>
+        <v>75.74779675012003</v>
       </c>
       <c r="K17" t="n">
-        <v>5.177760637567083</v>
+        <v>5.177760637567118</v>
       </c>
       <c r="L17" t="n">
-        <v>35.4298402351896</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7273058371380188</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>6.282602406860235</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.34037157088127</v>
+        <v>13.34037157088132</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.39635779869052</v>
+        <v>88.39635779869054</v>
       </c>
       <c r="R17" t="n">
-        <v>224.0735457535676</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S17" t="n">
         <v>227.2394267154776</v>
@@ -28618,7 +28618,7 @@
         <v>222.4125603583446</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1495670361522</v>
+        <v>322.5464621735845</v>
       </c>
       <c r="V17" t="n">
         <v>335.4328923203324</v>
@@ -28646,22 +28646,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>74.62749786211245</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>155.257464116257</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>74.27862190546223</v>
       </c>
       <c r="G18" t="n">
         <v>148.7380872222379</v>
       </c>
       <c r="H18" t="n">
-        <v>125.6725816482287</v>
+        <v>109.1024739246861</v>
       </c>
       <c r="I18" t="n">
-        <v>22.59420527314904</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>138.8394689195595</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K19" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L19" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013924</v>
       </c>
       <c r="M19" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515812</v>
       </c>
       <c r="N19" t="n">
-        <v>15.68403999776785</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O19" t="n">
-        <v>36.70659427566596</v>
+        <v>36.70659427566598</v>
       </c>
       <c r="P19" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q19" t="n">
         <v>126.7594634122123</v>
@@ -28819,13 +28819,13 @@
         <v>335.4328923203324</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5401725389593</v>
+        <v>312.9370676763917</v>
       </c>
       <c r="J20" t="n">
-        <v>75.74779675012002</v>
+        <v>75.74779675012003</v>
       </c>
       <c r="K20" t="n">
-        <v>5.177760637567083</v>
+        <v>5.177760637567118</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28837,13 +28837,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>47.9262075801101</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.34037157088127</v>
+        <v>13.34037157088132</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.39635779869052</v>
+        <v>88.39635779869054</v>
       </c>
       <c r="R20" t="n">
         <v>194.1163990953234</v>
@@ -28852,7 +28852,7 @@
         <v>227.2394267154776</v>
       </c>
       <c r="T20" t="n">
-        <v>246.8832479156665</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U20" t="n">
         <v>250.1495670361522</v>
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>74.62749786211245</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28892,13 +28892,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7380872222379</v>
+        <v>132.1679794986954</v>
       </c>
       <c r="H21" t="n">
-        <v>125.6725816482287</v>
+        <v>41.12776443376259</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1390224876151</v>
+        <v>22.59420527314903</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28922,19 +28922,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.037534323606003</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3151594521598</v>
+        <v>49.7703422376937</v>
       </c>
       <c r="S21" t="n">
         <v>191.4697362153245</v>
       </c>
       <c r="T21" t="n">
-        <v>130.3998372903865</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U21" t="n">
-        <v>214.6199986831354</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28943,7 +28943,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>132.7680972250045</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28983,22 +28983,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K22" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L22" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013924</v>
       </c>
       <c r="M22" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515812</v>
       </c>
       <c r="N22" t="n">
-        <v>15.68403999776785</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O22" t="n">
-        <v>36.70659427566596</v>
+        <v>36.70659427566598</v>
       </c>
       <c r="P22" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q22" t="n">
         <v>126.7594634122123</v>
@@ -29056,13 +29056,13 @@
         <v>335.4328923203324</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5401725389593</v>
+        <v>240.5401725389594</v>
       </c>
       <c r="J23" t="n">
-        <v>75.74779675012002</v>
+        <v>75.74779675012003</v>
       </c>
       <c r="K23" t="n">
-        <v>5.177760637567083</v>
+        <v>5.177760637567118</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.34037157088127</v>
+        <v>13.34037157088132</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.39635779869052</v>
+        <v>160.7932529361228</v>
       </c>
       <c r="R23" t="n">
         <v>194.1163990953234</v>
@@ -29089,13 +29089,13 @@
         <v>227.2394267154776</v>
       </c>
       <c r="T23" t="n">
-        <v>224.8177469924909</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U23" t="n">
-        <v>334.6943842506183</v>
+        <v>250.1495670361522</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="W23" t="n">
         <v>335.4328923203324</v>
@@ -29114,22 +29114,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.283419395164</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>74.62749786211243</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>87.28275462533357</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>74.27862190546223</v>
       </c>
       <c r="G24" t="n">
-        <v>64.19327000777183</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H24" t="n">
         <v>125.6725816482287</v>
@@ -29138,7 +29138,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J24" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,13 +29159,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.037534323606003</v>
+        <v>6.037534323606025</v>
       </c>
       <c r="R24" t="n">
-        <v>49.7703422376937</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S24" t="n">
-        <v>106.9249190008584</v>
+        <v>117.0026612128228</v>
       </c>
       <c r="T24" t="n">
         <v>214.9446545048526</v>
@@ -29220,22 +29220,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K25" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L25" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013924</v>
       </c>
       <c r="M25" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515812</v>
       </c>
       <c r="N25" t="n">
-        <v>15.68403999776785</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O25" t="n">
-        <v>36.70659427566596</v>
+        <v>36.70659427566598</v>
       </c>
       <c r="P25" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q25" t="n">
         <v>126.7594634122123</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8404435700401</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="27">
@@ -29363,10 +29363,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H27" t="n">
         <v>125.6725816482287</v>
@@ -29375,7 +29375,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J27" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.037534323606003</v>
+        <v>6.037534323606025</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S27" t="n">
         <v>191.4697362153245</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8404435700393</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8404435700393</v>
+        <v>3.632158425793193</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.82795708004068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29439,10 +29439,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>212.8404435700393</v>
+        <v>181.5717137814339</v>
       </c>
       <c r="F28" t="n">
-        <v>202.1712693645081</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.6953110816783</v>
@@ -29454,52 +29454,52 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J28" t="n">
-        <v>212.8404435700393</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K28" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L28" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013924</v>
       </c>
       <c r="M28" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515812</v>
       </c>
       <c r="N28" t="n">
-        <v>15.68403999776785</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="O28" t="n">
-        <v>36.70659427566596</v>
+        <v>36.70659427566598</v>
       </c>
       <c r="P28" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7594634122123</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8404435700393</v>
+        <v>203.184286794587</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="K29" t="n">
         <v>212.8404435700394</v>
@@ -29591,16 +29591,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7380872222379</v>
@@ -29612,7 +29612,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J30" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.037534323606003</v>
+        <v>6.037534323606025</v>
       </c>
       <c r="R30" t="n">
         <v>134.3151594521598</v>
@@ -29642,7 +29642,7 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8404435700394</v>
+        <v>162.4555975457217</v>
       </c>
       <c r="U30" t="n">
         <v>212.8404435700394</v>
@@ -29654,10 +29654,10 @@
         <v>212.8404435700394</v>
       </c>
       <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>212.8404435700394</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>137.4821814566982</v>
       </c>
     </row>
     <row r="31">
@@ -29682,40 +29682,40 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6953110816783</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7758191012691</v>
+        <v>179.6145527344083</v>
       </c>
       <c r="I31" t="n">
         <v>164.6886553331604</v>
       </c>
       <c r="J31" t="n">
-        <v>119.8533137078861</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="K31" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L31" t="n">
+        <v>31.33949144013924</v>
+      </c>
+      <c r="M31" t="n">
+        <v>24.36038278515812</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15.68403999776787</v>
+      </c>
+      <c r="O31" t="n">
+        <v>36.70659427566598</v>
+      </c>
+      <c r="P31" t="n">
+        <v>57.81777162581085</v>
+      </c>
+      <c r="Q31" t="n">
         <v>212.8404435700394</v>
       </c>
-      <c r="M31" t="n">
-        <v>24.3603827851581</v>
-      </c>
-      <c r="N31" t="n">
-        <v>15.68403999776785</v>
-      </c>
-      <c r="O31" t="n">
-        <v>36.70659427566596</v>
-      </c>
-      <c r="P31" t="n">
-        <v>57.81777162581083</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>172.6543306483406</v>
-      </c>
       <c r="R31" t="n">
-        <v>212.8404435700394</v>
+        <v>203.184286794587</v>
       </c>
       <c r="S31" t="n">
         <v>212.8404435700394</v>
@@ -29831,13 +29831,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7380872222379</v>
@@ -29849,7 +29849,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J33" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.037534323606003</v>
+        <v>6.037534323606025</v>
       </c>
       <c r="R33" t="n">
         <v>134.3151594521598</v>
@@ -29882,19 +29882,19 @@
         <v>212.8404435700394</v>
       </c>
       <c r="U33" t="n">
-        <v>108.7874690522608</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8404435700394</v>
+        <v>3.632158425793477</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29925,28 +29925,28 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I34" t="n">
+        <v>164.6886553331604</v>
+      </c>
+      <c r="J34" t="n">
         <v>212.8404435700394</v>
       </c>
-      <c r="J34" t="n">
-        <v>162.3082386801865</v>
-      </c>
       <c r="K34" t="n">
-        <v>212.8404435700394</v>
+        <v>210.4600269170656</v>
       </c>
       <c r="L34" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013924</v>
       </c>
       <c r="M34" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515812</v>
       </c>
       <c r="N34" t="n">
-        <v>15.68403999776785</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70659427566596</v>
+        <v>36.70659427566598</v>
       </c>
       <c r="P34" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7594634122123</v>
@@ -30007,13 +30007,13 @@
         <v>236.2350917786668</v>
       </c>
       <c r="J35" t="n">
-        <v>136.2272218199714</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K35" t="n">
-        <v>236.2350917786668</v>
+        <v>140.5719283276635</v>
       </c>
       <c r="L35" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>236.2350917786668</v>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>13.34037157088127</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Q35" t="n">
         <v>236.2350917786668</v>
@@ -30034,7 +30034,7 @@
         <v>236.2350917786668</v>
       </c>
       <c r="S35" t="n">
-        <v>227.2394267154776</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T35" t="n">
         <v>236.2350917786668</v>
@@ -30065,28 +30065,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>125.6725816482287</v>
       </c>
       <c r="I36" t="n">
-        <v>107.1390224876151</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.037534323606003</v>
+        <v>6.037534323606025</v>
       </c>
       <c r="R36" t="n">
         <v>134.3151594521598</v>
@@ -30119,10 +30119,10 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U36" t="n">
-        <v>3.864776536535544</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V36" t="n">
-        <v>236.2350917786668</v>
+        <v>116.2601508543766</v>
       </c>
       <c r="W36" t="n">
         <v>236.2350917786668</v>
@@ -30162,28 +30162,28 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I37" t="n">
-        <v>164.6886553331604</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J37" t="n">
-        <v>119.8533137078861</v>
+        <v>166.0200757915252</v>
       </c>
       <c r="K37" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L37" t="n">
-        <v>149.0526899692847</v>
+        <v>31.33949144013924</v>
       </c>
       <c r="M37" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515812</v>
       </c>
       <c r="N37" t="n">
-        <v>15.68403999776785</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O37" t="n">
-        <v>36.70659427566596</v>
+        <v>36.70659427566598</v>
       </c>
       <c r="P37" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7594634122123</v>
@@ -30250,22 +30250,22 @@
         <v>236.2350917786668</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>140.5719283276633</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2350917786668</v>
-      </c>
-      <c r="M38" t="n">
-        <v>236.2350917786668</v>
-      </c>
-      <c r="N38" t="n">
-        <v>52.17557052897257</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.39635779869052</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="R38" t="n">
         <v>236.2350917786668</v>
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>123.3382841521222</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30317,13 +30317,13 @@
         <v>148.7380872222379</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1390224876151</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.037534323606003</v>
+        <v>6.037534323606025</v>
       </c>
       <c r="R39" t="n">
         <v>134.3151594521598</v>
@@ -30359,7 +30359,7 @@
         <v>236.2350917786668</v>
       </c>
       <c r="V39" t="n">
-        <v>131.4891454713909</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>236.2350917786668</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30405,22 +30405,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K40" t="n">
-        <v>184.1083791668834</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L40" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013924</v>
       </c>
       <c r="M40" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515812</v>
       </c>
       <c r="N40" t="n">
-        <v>15.68403999776785</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O40" t="n">
-        <v>36.70659427566596</v>
+        <v>36.70659427566598</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81777162581083</v>
+        <v>142.1215148200337</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7594634122123</v>
@@ -30444,10 +30444,10 @@
         <v>236.2350917786668</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="41">
@@ -30484,10 +30484,10 @@
         <v>236.2350917786668</v>
       </c>
       <c r="K41" t="n">
-        <v>5.177760637567083</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L41" t="n">
-        <v>98.11216763793803</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>236.2350917786668</v>
@@ -30496,13 +30496,13 @@
         <v>236.2350917786668</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.39635779869052</v>
+        <v>205.5088174945179</v>
       </c>
       <c r="R41" t="n">
         <v>194.1163990953234</v>
@@ -30511,7 +30511,7 @@
         <v>227.2394267154776</v>
       </c>
       <c r="T41" t="n">
-        <v>236.2350917786668</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U41" t="n">
         <v>236.2350917786668</v>
@@ -30536,19 +30536,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>77.69595558399382</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7380872222379</v>
@@ -30560,7 +30560,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J42" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.037534323606003</v>
+        <v>6.037534323606025</v>
       </c>
       <c r="R42" t="n">
         <v>134.3151594521598</v>
@@ -30593,7 +30593,7 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V42" t="n">
         <v>236.2350917786668</v>
@@ -30602,7 +30602,7 @@
         <v>236.2350917786668</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>31.21549092286406</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30618,16 +30618,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>193.1179379731616</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>236.2350917786668</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.6953110816783</v>
@@ -30642,22 +30642,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K43" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L43" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013924</v>
       </c>
       <c r="M43" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515812</v>
       </c>
       <c r="N43" t="n">
-        <v>36.08902896669319</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O43" t="n">
-        <v>36.70659427566596</v>
+        <v>36.70659427566598</v>
       </c>
       <c r="P43" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q43" t="n">
         <v>126.7594634122123</v>
@@ -30721,34 +30721,34 @@
         <v>236.2350917786668</v>
       </c>
       <c r="K44" t="n">
-        <v>5.177760637567083</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L44" t="n">
-        <v>60.82034131172763</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="M44" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2350917786668</v>
+        <v>149.5675933908524</v>
       </c>
       <c r="P44" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.39635779869052</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="R44" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="S44" t="n">
+        <v>227.2394267154776</v>
+      </c>
+      <c r="T44" t="n">
         <v>236.2350917786668</v>
-      </c>
-      <c r="T44" t="n">
-        <v>222.4125603583446</v>
       </c>
       <c r="U44" t="n">
         <v>236.2350917786668</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30782,10 +30782,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7380872222379</v>
@@ -30794,10 +30794,10 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I45" t="n">
-        <v>107.1390224876151</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,13 +30818,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.037534323606003</v>
+        <v>6.037534323606025</v>
       </c>
       <c r="R45" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S45" t="n">
-        <v>41.08512023314753</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T45" t="n">
         <v>214.9446545048526</v>
@@ -30833,13 +30833,13 @@
         <v>236.2350917786668</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>10.32095926711452</v>
       </c>
       <c r="W45" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200.7711686276718</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>236.2350917786668</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30879,22 +30879,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K46" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L46" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013924</v>
       </c>
       <c r="M46" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515812</v>
       </c>
       <c r="N46" t="n">
-        <v>15.68403999776785</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O46" t="n">
-        <v>36.70659427566596</v>
+        <v>36.70659427566598</v>
       </c>
       <c r="P46" t="n">
-        <v>57.81777162581083</v>
+        <v>175.5309701549562</v>
       </c>
       <c r="Q46" t="n">
         <v>126.7594634122123</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823992</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785497</v>
       </c>
       <c r="I11" t="n">
-        <v>16.14963601152697</v>
+        <v>16.14963601152696</v>
       </c>
       <c r="J11" t="n">
-        <v>35.55360014093346</v>
+        <v>35.55360014093344</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119441</v>
       </c>
       <c r="L11" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396902</v>
       </c>
       <c r="M11" t="n">
-        <v>73.55514621124532</v>
+        <v>73.55514621124526</v>
       </c>
       <c r="N11" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648101</v>
       </c>
       <c r="O11" t="n">
-        <v>70.57991011055482</v>
+        <v>70.57991011055476</v>
       </c>
       <c r="P11" t="n">
-        <v>60.23832035542682</v>
+        <v>60.23832035542678</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051959</v>
       </c>
       <c r="R11" t="n">
-        <v>26.31371696022518</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S11" t="n">
-        <v>9.545680062581438</v>
+        <v>9.545680062581432</v>
       </c>
       <c r="T11" t="n">
-        <v>1.833734041643455</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03351198705459196</v>
+        <v>0.03351198705459193</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2241311728539133</v>
+        <v>0.2241311728539131</v>
       </c>
       <c r="H12" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I12" t="n">
-        <v>7.716796960101839</v>
+        <v>7.716796960101834</v>
       </c>
       <c r="J12" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739536</v>
       </c>
       <c r="K12" t="n">
-        <v>36.19226925860757</v>
+        <v>36.19226925860754</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66497242163587</v>
+        <v>48.66497242163583</v>
       </c>
       <c r="M12" t="n">
-        <v>56.78972743759021</v>
+        <v>56.78972743759017</v>
       </c>
       <c r="N12" t="n">
-        <v>58.29278253975528</v>
+        <v>58.29278253975524</v>
       </c>
       <c r="O12" t="n">
-        <v>53.3265076044133</v>
+        <v>53.32650760441327</v>
       </c>
       <c r="P12" t="n">
-        <v>42.79922370049858</v>
+        <v>42.79922370049855</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851003</v>
       </c>
       <c r="R12" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S12" t="n">
-        <v>4.163138232615448</v>
+        <v>4.163138232615445</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9034059116348518</v>
+        <v>0.9034059116348512</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01474547189828377</v>
+        <v>0.01474547189828376</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H13" t="n">
-        <v>1.670637793170801</v>
+        <v>1.670637793170799</v>
       </c>
       <c r="I13" t="n">
-        <v>5.650787136819025</v>
+        <v>5.65078713681902</v>
       </c>
       <c r="J13" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K13" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898036</v>
       </c>
       <c r="L13" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404421</v>
       </c>
       <c r="M13" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159925</v>
       </c>
       <c r="N13" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460538</v>
       </c>
       <c r="O13" t="n">
-        <v>26.55938283049039</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P13" t="n">
-        <v>22.72614028665062</v>
+        <v>22.7261402866506</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.73440154692866</v>
+        <v>15.73440154692865</v>
       </c>
       <c r="R13" t="n">
-        <v>8.448849207589745</v>
+        <v>8.44884920758974</v>
       </c>
       <c r="S13" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847054</v>
       </c>
       <c r="T13" t="n">
-        <v>0.802862743139341</v>
+        <v>0.8028627431393405</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024931161454479</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823992</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785497</v>
       </c>
       <c r="I14" t="n">
-        <v>16.14963601152697</v>
+        <v>16.14963601152696</v>
       </c>
       <c r="J14" t="n">
-        <v>35.55360014093346</v>
+        <v>35.55360014093344</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119441</v>
       </c>
       <c r="L14" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396902</v>
       </c>
       <c r="M14" t="n">
-        <v>73.55514621124532</v>
+        <v>73.55514621124526</v>
       </c>
       <c r="N14" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648101</v>
       </c>
       <c r="O14" t="n">
-        <v>70.57991011055482</v>
+        <v>70.57991011055476</v>
       </c>
       <c r="P14" t="n">
-        <v>60.23832035542682</v>
+        <v>60.23832035542678</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051959</v>
       </c>
       <c r="R14" t="n">
-        <v>26.31371696022518</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S14" t="n">
-        <v>9.545680062581438</v>
+        <v>9.545680062581432</v>
       </c>
       <c r="T14" t="n">
-        <v>1.833734041643455</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03351198705459196</v>
+        <v>0.03351198705459193</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2241311728539133</v>
+        <v>0.2241311728539131</v>
       </c>
       <c r="H15" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I15" t="n">
-        <v>7.716796960101839</v>
+        <v>7.716796960101834</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739536</v>
       </c>
       <c r="K15" t="n">
-        <v>36.19226925860757</v>
+        <v>36.19226925860754</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66497242163587</v>
+        <v>48.66497242163583</v>
       </c>
       <c r="M15" t="n">
-        <v>56.78972743759021</v>
+        <v>56.78972743759017</v>
       </c>
       <c r="N15" t="n">
-        <v>58.29278253975528</v>
+        <v>58.29278253975524</v>
       </c>
       <c r="O15" t="n">
-        <v>53.3265076044133</v>
+        <v>53.32650760441327</v>
       </c>
       <c r="P15" t="n">
-        <v>42.79922370049858</v>
+        <v>42.79922370049855</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851003</v>
       </c>
       <c r="R15" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S15" t="n">
-        <v>4.163138232615448</v>
+        <v>4.163138232615445</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9034059116348518</v>
+        <v>0.9034059116348512</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01474547189828377</v>
+        <v>0.01474547189828376</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H16" t="n">
-        <v>1.670637793170801</v>
+        <v>1.670637793170799</v>
       </c>
       <c r="I16" t="n">
-        <v>5.650787136819025</v>
+        <v>5.65078713681902</v>
       </c>
       <c r="J16" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K16" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898036</v>
       </c>
       <c r="L16" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404421</v>
       </c>
       <c r="M16" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159925</v>
       </c>
       <c r="N16" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460538</v>
       </c>
       <c r="O16" t="n">
-        <v>26.55938283049039</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P16" t="n">
-        <v>22.72614028665062</v>
+        <v>22.7261402866506</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.73440154692866</v>
+        <v>15.73440154692865</v>
       </c>
       <c r="R16" t="n">
-        <v>8.448849207589745</v>
+        <v>8.44884920758974</v>
       </c>
       <c r="S16" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847054</v>
       </c>
       <c r="T16" t="n">
-        <v>0.802862743139341</v>
+        <v>0.8028627431393405</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024931161454479</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823992</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785497</v>
       </c>
       <c r="I17" t="n">
-        <v>16.14963601152697</v>
+        <v>16.14963601152696</v>
       </c>
       <c r="J17" t="n">
-        <v>35.55360014093346</v>
+        <v>35.55360014093344</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119441</v>
       </c>
       <c r="L17" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396902</v>
       </c>
       <c r="M17" t="n">
-        <v>73.55514621124532</v>
+        <v>73.55514621124526</v>
       </c>
       <c r="N17" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648101</v>
       </c>
       <c r="O17" t="n">
-        <v>70.57991011055482</v>
+        <v>70.57991011055476</v>
       </c>
       <c r="P17" t="n">
-        <v>60.23832035542682</v>
+        <v>60.23832035542678</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051959</v>
       </c>
       <c r="R17" t="n">
-        <v>26.31371696022518</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S17" t="n">
-        <v>9.545680062581438</v>
+        <v>9.545680062581432</v>
       </c>
       <c r="T17" t="n">
-        <v>1.833734041643455</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03351198705459196</v>
+        <v>0.03351198705459193</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2241311728539133</v>
+        <v>0.2241311728539131</v>
       </c>
       <c r="H18" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I18" t="n">
-        <v>7.716796960101839</v>
+        <v>7.716796960101834</v>
       </c>
       <c r="J18" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739536</v>
       </c>
       <c r="K18" t="n">
-        <v>36.19226925860757</v>
+        <v>36.19226925860754</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66497242163587</v>
+        <v>48.66497242163583</v>
       </c>
       <c r="M18" t="n">
-        <v>56.78972743759021</v>
+        <v>56.78972743759017</v>
       </c>
       <c r="N18" t="n">
-        <v>58.29278253975528</v>
+        <v>58.29278253975524</v>
       </c>
       <c r="O18" t="n">
-        <v>53.3265076044133</v>
+        <v>53.32650760441327</v>
       </c>
       <c r="P18" t="n">
-        <v>42.79922370049858</v>
+        <v>42.79922370049855</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851003</v>
       </c>
       <c r="R18" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S18" t="n">
-        <v>4.163138232615448</v>
+        <v>4.163138232615445</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9034059116348518</v>
+        <v>0.9034059116348512</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01474547189828377</v>
+        <v>0.01474547189828376</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H19" t="n">
-        <v>1.670637793170801</v>
+        <v>1.670637793170799</v>
       </c>
       <c r="I19" t="n">
-        <v>5.650787136819025</v>
+        <v>5.65078713681902</v>
       </c>
       <c r="J19" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K19" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898036</v>
       </c>
       <c r="L19" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404421</v>
       </c>
       <c r="M19" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159925</v>
       </c>
       <c r="N19" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460538</v>
       </c>
       <c r="O19" t="n">
-        <v>26.55938283049039</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P19" t="n">
-        <v>22.72614028665062</v>
+        <v>22.7261402866506</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.73440154692866</v>
+        <v>15.73440154692865</v>
       </c>
       <c r="R19" t="n">
-        <v>8.448849207589745</v>
+        <v>8.44884920758974</v>
       </c>
       <c r="S19" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847054</v>
       </c>
       <c r="T19" t="n">
-        <v>0.802862743139341</v>
+        <v>0.8028627431393405</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024931161454479</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823992</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785497</v>
       </c>
       <c r="I20" t="n">
-        <v>16.14963601152697</v>
+        <v>16.14963601152696</v>
       </c>
       <c r="J20" t="n">
-        <v>35.55360014093346</v>
+        <v>35.55360014093344</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119441</v>
       </c>
       <c r="L20" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396902</v>
       </c>
       <c r="M20" t="n">
-        <v>73.55514621124532</v>
+        <v>73.55514621124526</v>
       </c>
       <c r="N20" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648101</v>
       </c>
       <c r="O20" t="n">
-        <v>70.57991011055482</v>
+        <v>70.57991011055476</v>
       </c>
       <c r="P20" t="n">
-        <v>60.23832035542682</v>
+        <v>60.23832035542678</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051959</v>
       </c>
       <c r="R20" t="n">
-        <v>26.31371696022518</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S20" t="n">
-        <v>9.545680062581438</v>
+        <v>9.545680062581432</v>
       </c>
       <c r="T20" t="n">
-        <v>1.833734041643455</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03351198705459196</v>
+        <v>0.03351198705459193</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2241311728539133</v>
+        <v>0.2241311728539131</v>
       </c>
       <c r="H21" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I21" t="n">
-        <v>7.716796960101839</v>
+        <v>7.716796960101834</v>
       </c>
       <c r="J21" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739536</v>
       </c>
       <c r="K21" t="n">
-        <v>36.19226925860757</v>
+        <v>36.19226925860754</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66497242163587</v>
+        <v>48.66497242163583</v>
       </c>
       <c r="M21" t="n">
-        <v>56.78972743759021</v>
+        <v>56.78972743759017</v>
       </c>
       <c r="N21" t="n">
-        <v>58.29278253975528</v>
+        <v>58.29278253975524</v>
       </c>
       <c r="O21" t="n">
-        <v>53.3265076044133</v>
+        <v>53.32650760441327</v>
       </c>
       <c r="P21" t="n">
-        <v>42.79922370049858</v>
+        <v>42.79922370049855</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851003</v>
       </c>
       <c r="R21" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S21" t="n">
-        <v>4.163138232615448</v>
+        <v>4.163138232615445</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9034059116348518</v>
+        <v>0.9034059116348512</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01474547189828377</v>
+        <v>0.01474547189828376</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H22" t="n">
-        <v>1.670637793170801</v>
+        <v>1.670637793170799</v>
       </c>
       <c r="I22" t="n">
-        <v>5.650787136819025</v>
+        <v>5.65078713681902</v>
       </c>
       <c r="J22" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K22" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898036</v>
       </c>
       <c r="L22" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404421</v>
       </c>
       <c r="M22" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159925</v>
       </c>
       <c r="N22" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460538</v>
       </c>
       <c r="O22" t="n">
-        <v>26.55938283049039</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P22" t="n">
-        <v>22.72614028665062</v>
+        <v>22.7261402866506</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.73440154692866</v>
+        <v>15.73440154692865</v>
       </c>
       <c r="R22" t="n">
-        <v>8.448849207589745</v>
+        <v>8.44884920758974</v>
       </c>
       <c r="S22" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847054</v>
       </c>
       <c r="T22" t="n">
-        <v>0.802862743139341</v>
+        <v>0.8028627431393405</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024931161454479</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823992</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785497</v>
       </c>
       <c r="I23" t="n">
-        <v>16.14963601152697</v>
+        <v>16.14963601152696</v>
       </c>
       <c r="J23" t="n">
-        <v>35.55360014093346</v>
+        <v>35.55360014093344</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119441</v>
       </c>
       <c r="L23" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396902</v>
       </c>
       <c r="M23" t="n">
-        <v>73.55514621124532</v>
+        <v>73.55514621124526</v>
       </c>
       <c r="N23" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648101</v>
       </c>
       <c r="O23" t="n">
-        <v>70.57991011055482</v>
+        <v>70.57991011055476</v>
       </c>
       <c r="P23" t="n">
-        <v>60.23832035542682</v>
+        <v>60.23832035542678</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051959</v>
       </c>
       <c r="R23" t="n">
-        <v>26.31371696022518</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S23" t="n">
-        <v>9.545680062581438</v>
+        <v>9.545680062581432</v>
       </c>
       <c r="T23" t="n">
-        <v>1.833734041643455</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03351198705459196</v>
+        <v>0.03351198705459193</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2241311728539133</v>
+        <v>0.2241311728539131</v>
       </c>
       <c r="H24" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I24" t="n">
-        <v>7.716796960101839</v>
+        <v>7.716796960101834</v>
       </c>
       <c r="J24" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739536</v>
       </c>
       <c r="K24" t="n">
-        <v>36.19226925860757</v>
+        <v>36.19226925860754</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66497242163587</v>
+        <v>48.66497242163583</v>
       </c>
       <c r="M24" t="n">
-        <v>56.78972743759021</v>
+        <v>56.78972743759017</v>
       </c>
       <c r="N24" t="n">
-        <v>58.29278253975528</v>
+        <v>58.29278253975524</v>
       </c>
       <c r="O24" t="n">
-        <v>53.3265076044133</v>
+        <v>53.32650760441327</v>
       </c>
       <c r="P24" t="n">
-        <v>42.79922370049858</v>
+        <v>42.79922370049855</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851003</v>
       </c>
       <c r="R24" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S24" t="n">
-        <v>4.163138232615448</v>
+        <v>4.163138232615445</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9034059116348518</v>
+        <v>0.9034059116348512</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01474547189828377</v>
+        <v>0.01474547189828376</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H25" t="n">
-        <v>1.670637793170801</v>
+        <v>1.670637793170799</v>
       </c>
       <c r="I25" t="n">
-        <v>5.650787136819025</v>
+        <v>5.65078713681902</v>
       </c>
       <c r="J25" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K25" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898036</v>
       </c>
       <c r="L25" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404421</v>
       </c>
       <c r="M25" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159925</v>
       </c>
       <c r="N25" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460538</v>
       </c>
       <c r="O25" t="n">
-        <v>26.55938283049039</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P25" t="n">
-        <v>22.72614028665062</v>
+        <v>22.7261402866506</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.73440154692866</v>
+        <v>15.73440154692865</v>
       </c>
       <c r="R25" t="n">
-        <v>8.448849207589745</v>
+        <v>8.44884920758974</v>
       </c>
       <c r="S25" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847054</v>
       </c>
       <c r="T25" t="n">
-        <v>0.802862743139341</v>
+        <v>0.8028627431393405</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024931161454479</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823992</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785497</v>
       </c>
       <c r="I26" t="n">
-        <v>16.14963601152697</v>
+        <v>16.14963601152696</v>
       </c>
       <c r="J26" t="n">
-        <v>35.55360014093346</v>
+        <v>35.55360014093344</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119441</v>
       </c>
       <c r="L26" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396902</v>
       </c>
       <c r="M26" t="n">
-        <v>73.55514621124532</v>
+        <v>73.55514621124526</v>
       </c>
       <c r="N26" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648101</v>
       </c>
       <c r="O26" t="n">
-        <v>70.57991011055482</v>
+        <v>70.57991011055476</v>
       </c>
       <c r="P26" t="n">
-        <v>60.23832035542682</v>
+        <v>60.23832035542678</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051959</v>
       </c>
       <c r="R26" t="n">
-        <v>26.31371696022518</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S26" t="n">
-        <v>9.545680062581438</v>
+        <v>9.545680062581432</v>
       </c>
       <c r="T26" t="n">
-        <v>1.833734041643455</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03351198705459196</v>
+        <v>0.03351198705459193</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2241311728539133</v>
+        <v>0.2241311728539131</v>
       </c>
       <c r="H27" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I27" t="n">
-        <v>7.716796960101839</v>
+        <v>7.716796960101834</v>
       </c>
       <c r="J27" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739536</v>
       </c>
       <c r="K27" t="n">
-        <v>36.19226925860757</v>
+        <v>36.19226925860754</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66497242163587</v>
+        <v>48.66497242163583</v>
       </c>
       <c r="M27" t="n">
-        <v>56.78972743759021</v>
+        <v>56.78972743759017</v>
       </c>
       <c r="N27" t="n">
-        <v>58.29278253975528</v>
+        <v>58.29278253975524</v>
       </c>
       <c r="O27" t="n">
-        <v>53.3265076044133</v>
+        <v>53.32650760441327</v>
       </c>
       <c r="P27" t="n">
-        <v>42.79922370049858</v>
+        <v>42.79922370049855</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851003</v>
       </c>
       <c r="R27" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S27" t="n">
-        <v>4.163138232615448</v>
+        <v>4.163138232615445</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9034059116348518</v>
+        <v>0.9034059116348512</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01474547189828377</v>
+        <v>0.01474547189828376</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H28" t="n">
-        <v>1.670637793170801</v>
+        <v>1.670637793170799</v>
       </c>
       <c r="I28" t="n">
-        <v>5.650787136819025</v>
+        <v>5.65078713681902</v>
       </c>
       <c r="J28" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K28" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898036</v>
       </c>
       <c r="L28" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404421</v>
       </c>
       <c r="M28" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159925</v>
       </c>
       <c r="N28" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460538</v>
       </c>
       <c r="O28" t="n">
-        <v>26.55938283049039</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P28" t="n">
-        <v>22.72614028665062</v>
+        <v>22.7261402866506</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.73440154692866</v>
+        <v>15.73440154692865</v>
       </c>
       <c r="R28" t="n">
-        <v>8.448849207589745</v>
+        <v>8.44884920758974</v>
       </c>
       <c r="S28" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847054</v>
       </c>
       <c r="T28" t="n">
-        <v>0.802862743139341</v>
+        <v>0.8028627431393405</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024931161454479</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823992</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785497</v>
       </c>
       <c r="I29" t="n">
-        <v>16.14963601152697</v>
+        <v>16.14963601152696</v>
       </c>
       <c r="J29" t="n">
-        <v>35.55360014093346</v>
+        <v>35.55360014093344</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119441</v>
       </c>
       <c r="L29" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396902</v>
       </c>
       <c r="M29" t="n">
-        <v>73.55514621124532</v>
+        <v>73.55514621124526</v>
       </c>
       <c r="N29" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648101</v>
       </c>
       <c r="O29" t="n">
-        <v>70.57991011055482</v>
+        <v>70.57991011055476</v>
       </c>
       <c r="P29" t="n">
-        <v>60.23832035542682</v>
+        <v>60.23832035542678</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051959</v>
       </c>
       <c r="R29" t="n">
-        <v>26.31371696022518</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S29" t="n">
-        <v>9.545680062581438</v>
+        <v>9.545680062581432</v>
       </c>
       <c r="T29" t="n">
-        <v>1.833734041643455</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03351198705459196</v>
+        <v>0.03351198705459193</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2241311728539133</v>
+        <v>0.2241311728539131</v>
       </c>
       <c r="H30" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I30" t="n">
-        <v>7.716796960101839</v>
+        <v>7.716796960101834</v>
       </c>
       <c r="J30" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739536</v>
       </c>
       <c r="K30" t="n">
-        <v>36.19226925860757</v>
+        <v>36.19226925860754</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66497242163587</v>
+        <v>48.66497242163583</v>
       </c>
       <c r="M30" t="n">
-        <v>56.78972743759021</v>
+        <v>56.78972743759017</v>
       </c>
       <c r="N30" t="n">
-        <v>58.29278253975528</v>
+        <v>58.29278253975524</v>
       </c>
       <c r="O30" t="n">
-        <v>53.3265076044133</v>
+        <v>53.32650760441327</v>
       </c>
       <c r="P30" t="n">
-        <v>42.79922370049858</v>
+        <v>42.79922370049855</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851003</v>
       </c>
       <c r="R30" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S30" t="n">
-        <v>4.163138232615448</v>
+        <v>4.163138232615445</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9034059116348518</v>
+        <v>0.9034059116348512</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01474547189828377</v>
+        <v>0.01474547189828376</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H31" t="n">
-        <v>1.670637793170801</v>
+        <v>1.670637793170799</v>
       </c>
       <c r="I31" t="n">
-        <v>5.650787136819025</v>
+        <v>5.65078713681902</v>
       </c>
       <c r="J31" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K31" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898036</v>
       </c>
       <c r="L31" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404421</v>
       </c>
       <c r="M31" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159925</v>
       </c>
       <c r="N31" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460538</v>
       </c>
       <c r="O31" t="n">
-        <v>26.55938283049039</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P31" t="n">
-        <v>22.72614028665062</v>
+        <v>22.7261402866506</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.73440154692866</v>
+        <v>15.73440154692865</v>
       </c>
       <c r="R31" t="n">
-        <v>8.448849207589745</v>
+        <v>8.44884920758974</v>
       </c>
       <c r="S31" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847054</v>
       </c>
       <c r="T31" t="n">
-        <v>0.802862743139341</v>
+        <v>0.8028627431393405</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024931161454479</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823992</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785497</v>
       </c>
       <c r="I32" t="n">
-        <v>16.14963601152697</v>
+        <v>16.14963601152696</v>
       </c>
       <c r="J32" t="n">
-        <v>35.55360014093346</v>
+        <v>35.55360014093344</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119441</v>
       </c>
       <c r="L32" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396902</v>
       </c>
       <c r="M32" t="n">
-        <v>73.55514621124532</v>
+        <v>73.55514621124526</v>
       </c>
       <c r="N32" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648101</v>
       </c>
       <c r="O32" t="n">
-        <v>70.57991011055482</v>
+        <v>70.57991011055476</v>
       </c>
       <c r="P32" t="n">
-        <v>60.23832035542682</v>
+        <v>60.23832035542678</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051959</v>
       </c>
       <c r="R32" t="n">
-        <v>26.31371696022518</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S32" t="n">
-        <v>9.545680062581438</v>
+        <v>9.545680062581432</v>
       </c>
       <c r="T32" t="n">
-        <v>1.833734041643455</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03351198705459196</v>
+        <v>0.03351198705459193</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2241311728539133</v>
+        <v>0.2241311728539131</v>
       </c>
       <c r="H33" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I33" t="n">
-        <v>7.716796960101839</v>
+        <v>7.716796960101834</v>
       </c>
       <c r="J33" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739536</v>
       </c>
       <c r="K33" t="n">
-        <v>36.19226925860757</v>
+        <v>36.19226925860754</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66497242163587</v>
+        <v>48.66497242163583</v>
       </c>
       <c r="M33" t="n">
-        <v>56.78972743759021</v>
+        <v>56.78972743759017</v>
       </c>
       <c r="N33" t="n">
-        <v>58.29278253975528</v>
+        <v>58.29278253975524</v>
       </c>
       <c r="O33" t="n">
-        <v>53.3265076044133</v>
+        <v>53.32650760441327</v>
       </c>
       <c r="P33" t="n">
-        <v>42.79922370049858</v>
+        <v>42.79922370049855</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851003</v>
       </c>
       <c r="R33" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S33" t="n">
-        <v>4.163138232615448</v>
+        <v>4.163138232615445</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9034059116348518</v>
+        <v>0.9034059116348512</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01474547189828377</v>
+        <v>0.01474547189828376</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H34" t="n">
-        <v>1.670637793170801</v>
+        <v>1.670637793170799</v>
       </c>
       <c r="I34" t="n">
-        <v>5.650787136819025</v>
+        <v>5.65078713681902</v>
       </c>
       <c r="J34" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K34" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898036</v>
       </c>
       <c r="L34" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404421</v>
       </c>
       <c r="M34" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159925</v>
       </c>
       <c r="N34" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460538</v>
       </c>
       <c r="O34" t="n">
-        <v>26.55938283049039</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P34" t="n">
-        <v>22.72614028665062</v>
+        <v>22.7261402866506</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.73440154692866</v>
+        <v>15.73440154692865</v>
       </c>
       <c r="R34" t="n">
-        <v>8.448849207589745</v>
+        <v>8.44884920758974</v>
       </c>
       <c r="S34" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847054</v>
       </c>
       <c r="T34" t="n">
-        <v>0.802862743139341</v>
+        <v>0.8028627431393405</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024931161454479</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823992</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785497</v>
       </c>
       <c r="I35" t="n">
-        <v>16.14963601152697</v>
+        <v>16.14963601152696</v>
       </c>
       <c r="J35" t="n">
-        <v>35.55360014093346</v>
+        <v>35.55360014093344</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119441</v>
       </c>
       <c r="L35" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396902</v>
       </c>
       <c r="M35" t="n">
-        <v>73.55514621124532</v>
+        <v>73.55514621124526</v>
       </c>
       <c r="N35" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648101</v>
       </c>
       <c r="O35" t="n">
-        <v>70.57991011055482</v>
+        <v>70.57991011055476</v>
       </c>
       <c r="P35" t="n">
-        <v>60.23832035542682</v>
+        <v>60.23832035542678</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051959</v>
       </c>
       <c r="R35" t="n">
-        <v>26.31371696022518</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S35" t="n">
-        <v>9.545680062581438</v>
+        <v>9.545680062581432</v>
       </c>
       <c r="T35" t="n">
-        <v>1.833734041643455</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03351198705459196</v>
+        <v>0.03351198705459193</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2241311728539133</v>
+        <v>0.2241311728539131</v>
       </c>
       <c r="H36" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I36" t="n">
-        <v>7.716796960101839</v>
+        <v>7.716796960101834</v>
       </c>
       <c r="J36" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739536</v>
       </c>
       <c r="K36" t="n">
-        <v>36.19226925860757</v>
+        <v>36.19226925860754</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66497242163587</v>
+        <v>48.66497242163583</v>
       </c>
       <c r="M36" t="n">
-        <v>56.78972743759021</v>
+        <v>56.78972743759017</v>
       </c>
       <c r="N36" t="n">
-        <v>58.29278253975528</v>
+        <v>58.29278253975524</v>
       </c>
       <c r="O36" t="n">
-        <v>53.3265076044133</v>
+        <v>53.32650760441327</v>
       </c>
       <c r="P36" t="n">
-        <v>42.79922370049858</v>
+        <v>42.79922370049855</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851003</v>
       </c>
       <c r="R36" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S36" t="n">
-        <v>4.163138232615448</v>
+        <v>4.163138232615445</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9034059116348518</v>
+        <v>0.9034059116348512</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01474547189828377</v>
+        <v>0.01474547189828376</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H37" t="n">
-        <v>1.670637793170801</v>
+        <v>1.670637793170799</v>
       </c>
       <c r="I37" t="n">
-        <v>5.650787136819025</v>
+        <v>5.65078713681902</v>
       </c>
       <c r="J37" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K37" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898036</v>
       </c>
       <c r="L37" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404421</v>
       </c>
       <c r="M37" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159925</v>
       </c>
       <c r="N37" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460538</v>
       </c>
       <c r="O37" t="n">
-        <v>26.55938283049039</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P37" t="n">
-        <v>22.72614028665062</v>
+        <v>22.7261402866506</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.73440154692866</v>
+        <v>15.73440154692865</v>
       </c>
       <c r="R37" t="n">
-        <v>8.448849207589745</v>
+        <v>8.44884920758974</v>
       </c>
       <c r="S37" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847054</v>
       </c>
       <c r="T37" t="n">
-        <v>0.802862743139341</v>
+        <v>0.8028627431393405</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024931161454479</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823992</v>
       </c>
       <c r="H38" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785497</v>
       </c>
       <c r="I38" t="n">
-        <v>16.14963601152697</v>
+        <v>16.14963601152696</v>
       </c>
       <c r="J38" t="n">
-        <v>35.55360014093346</v>
+        <v>35.55360014093344</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119441</v>
       </c>
       <c r="L38" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396902</v>
       </c>
       <c r="M38" t="n">
-        <v>73.55514621124532</v>
+        <v>73.55514621124526</v>
       </c>
       <c r="N38" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648101</v>
       </c>
       <c r="O38" t="n">
-        <v>70.57991011055482</v>
+        <v>70.57991011055476</v>
       </c>
       <c r="P38" t="n">
-        <v>60.23832035542682</v>
+        <v>60.23832035542678</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051959</v>
       </c>
       <c r="R38" t="n">
-        <v>26.31371696022518</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S38" t="n">
-        <v>9.545680062581438</v>
+        <v>9.545680062581432</v>
       </c>
       <c r="T38" t="n">
-        <v>1.833734041643455</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03351198705459196</v>
+        <v>0.03351198705459193</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2241311728539133</v>
+        <v>0.2241311728539131</v>
       </c>
       <c r="H39" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I39" t="n">
-        <v>7.716796960101839</v>
+        <v>7.716796960101834</v>
       </c>
       <c r="J39" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739536</v>
       </c>
       <c r="K39" t="n">
-        <v>36.19226925860757</v>
+        <v>36.19226925860754</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66497242163587</v>
+        <v>48.66497242163583</v>
       </c>
       <c r="M39" t="n">
-        <v>56.78972743759021</v>
+        <v>56.78972743759017</v>
       </c>
       <c r="N39" t="n">
-        <v>58.29278253975528</v>
+        <v>58.29278253975524</v>
       </c>
       <c r="O39" t="n">
-        <v>53.3265076044133</v>
+        <v>53.32650760441327</v>
       </c>
       <c r="P39" t="n">
-        <v>42.79922370049858</v>
+        <v>42.79922370049855</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851003</v>
       </c>
       <c r="R39" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S39" t="n">
-        <v>4.163138232615448</v>
+        <v>4.163138232615445</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9034059116348518</v>
+        <v>0.9034059116348512</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01474547189828377</v>
+        <v>0.01474547189828376</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H40" t="n">
-        <v>1.670637793170801</v>
+        <v>1.670637793170799</v>
       </c>
       <c r="I40" t="n">
-        <v>5.650787136819025</v>
+        <v>5.65078713681902</v>
       </c>
       <c r="J40" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K40" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898036</v>
       </c>
       <c r="L40" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404421</v>
       </c>
       <c r="M40" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159925</v>
       </c>
       <c r="N40" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460538</v>
       </c>
       <c r="O40" t="n">
-        <v>26.55938283049039</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P40" t="n">
-        <v>22.72614028665062</v>
+        <v>22.7261402866506</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.73440154692866</v>
+        <v>15.73440154692865</v>
       </c>
       <c r="R40" t="n">
-        <v>8.448849207589745</v>
+        <v>8.44884920758974</v>
       </c>
       <c r="S40" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847054</v>
       </c>
       <c r="T40" t="n">
-        <v>0.802862743139341</v>
+        <v>0.8028627431393405</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024931161454479</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823992</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785497</v>
       </c>
       <c r="I41" t="n">
-        <v>16.14963601152697</v>
+        <v>16.14963601152696</v>
       </c>
       <c r="J41" t="n">
-        <v>35.55360014093346</v>
+        <v>35.55360014093344</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119441</v>
       </c>
       <c r="L41" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396902</v>
       </c>
       <c r="M41" t="n">
-        <v>73.55514621124532</v>
+        <v>73.55514621124526</v>
       </c>
       <c r="N41" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648101</v>
       </c>
       <c r="O41" t="n">
-        <v>70.57991011055482</v>
+        <v>70.57991011055476</v>
       </c>
       <c r="P41" t="n">
-        <v>60.23832035542682</v>
+        <v>60.23832035542678</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051959</v>
       </c>
       <c r="R41" t="n">
-        <v>26.31371696022518</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S41" t="n">
-        <v>9.545680062581438</v>
+        <v>9.545680062581432</v>
       </c>
       <c r="T41" t="n">
-        <v>1.833734041643455</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03351198705459196</v>
+        <v>0.03351198705459193</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2241311728539133</v>
+        <v>0.2241311728539131</v>
       </c>
       <c r="H42" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I42" t="n">
-        <v>7.716796960101839</v>
+        <v>7.716796960101834</v>
       </c>
       <c r="J42" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739536</v>
       </c>
       <c r="K42" t="n">
-        <v>36.19226925860757</v>
+        <v>36.19226925860754</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66497242163587</v>
+        <v>48.66497242163583</v>
       </c>
       <c r="M42" t="n">
-        <v>56.78972743759021</v>
+        <v>56.78972743759017</v>
       </c>
       <c r="N42" t="n">
-        <v>58.29278253975528</v>
+        <v>58.29278253975524</v>
       </c>
       <c r="O42" t="n">
-        <v>53.3265076044133</v>
+        <v>53.32650760441327</v>
       </c>
       <c r="P42" t="n">
-        <v>42.79922370049858</v>
+        <v>42.79922370049855</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851003</v>
       </c>
       <c r="R42" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S42" t="n">
-        <v>4.163138232615448</v>
+        <v>4.163138232615445</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9034059116348518</v>
+        <v>0.9034059116348512</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01474547189828377</v>
+        <v>0.01474547189828376</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H43" t="n">
-        <v>1.670637793170801</v>
+        <v>1.670637793170799</v>
       </c>
       <c r="I43" t="n">
-        <v>5.650787136819025</v>
+        <v>5.65078713681902</v>
       </c>
       <c r="J43" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K43" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898036</v>
       </c>
       <c r="L43" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404421</v>
       </c>
       <c r="M43" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159925</v>
       </c>
       <c r="N43" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460538</v>
       </c>
       <c r="O43" t="n">
-        <v>26.55938283049039</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P43" t="n">
-        <v>22.72614028665062</v>
+        <v>22.7261402866506</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.73440154692866</v>
+        <v>15.73440154692865</v>
       </c>
       <c r="R43" t="n">
-        <v>8.448849207589745</v>
+        <v>8.44884920758974</v>
       </c>
       <c r="S43" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847054</v>
       </c>
       <c r="T43" t="n">
-        <v>0.802862743139341</v>
+        <v>0.8028627431393405</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024931161454479</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823992</v>
       </c>
       <c r="H44" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785497</v>
       </c>
       <c r="I44" t="n">
-        <v>16.14963601152697</v>
+        <v>16.14963601152696</v>
       </c>
       <c r="J44" t="n">
-        <v>35.55360014093346</v>
+        <v>35.55360014093344</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119441</v>
       </c>
       <c r="L44" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396902</v>
       </c>
       <c r="M44" t="n">
-        <v>73.55514621124532</v>
+        <v>73.55514621124526</v>
       </c>
       <c r="N44" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648101</v>
       </c>
       <c r="O44" t="n">
-        <v>70.57991011055482</v>
+        <v>70.57991011055476</v>
       </c>
       <c r="P44" t="n">
-        <v>60.23832035542682</v>
+        <v>60.23832035542678</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051959</v>
       </c>
       <c r="R44" t="n">
-        <v>26.31371696022518</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S44" t="n">
-        <v>9.545680062581438</v>
+        <v>9.545680062581432</v>
       </c>
       <c r="T44" t="n">
-        <v>1.833734041643455</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03351198705459196</v>
+        <v>0.03351198705459193</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2241311728539133</v>
+        <v>0.2241311728539131</v>
       </c>
       <c r="H45" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I45" t="n">
-        <v>7.716796960101839</v>
+        <v>7.716796960101834</v>
       </c>
       <c r="J45" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739536</v>
       </c>
       <c r="K45" t="n">
-        <v>36.19226925860757</v>
+        <v>36.19226925860754</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66497242163587</v>
+        <v>48.66497242163583</v>
       </c>
       <c r="M45" t="n">
-        <v>56.78972743759021</v>
+        <v>56.78972743759017</v>
       </c>
       <c r="N45" t="n">
-        <v>58.29278253975528</v>
+        <v>58.29278253975524</v>
       </c>
       <c r="O45" t="n">
-        <v>53.3265076044133</v>
+        <v>53.32650760441327</v>
       </c>
       <c r="P45" t="n">
-        <v>42.79922370049858</v>
+        <v>42.79922370049855</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851003</v>
       </c>
       <c r="R45" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S45" t="n">
-        <v>4.163138232615448</v>
+        <v>4.163138232615445</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9034059116348518</v>
+        <v>0.9034059116348512</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01474547189828377</v>
+        <v>0.01474547189828376</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H46" t="n">
-        <v>1.670637793170801</v>
+        <v>1.670637793170799</v>
       </c>
       <c r="I46" t="n">
-        <v>5.650787136819025</v>
+        <v>5.65078713681902</v>
       </c>
       <c r="J46" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K46" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898036</v>
       </c>
       <c r="L46" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404421</v>
       </c>
       <c r="M46" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159925</v>
       </c>
       <c r="N46" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460538</v>
       </c>
       <c r="O46" t="n">
-        <v>26.55938283049039</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P46" t="n">
-        <v>22.72614028665062</v>
+        <v>22.7261402866506</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.73440154692866</v>
+        <v>15.73440154692865</v>
       </c>
       <c r="R46" t="n">
-        <v>8.448849207589745</v>
+        <v>8.44884920758974</v>
       </c>
       <c r="S46" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847054</v>
       </c>
       <c r="T46" t="n">
-        <v>0.802862743139341</v>
+        <v>0.8028627431393405</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024931161454479</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>76.9549612177716</v>
       </c>
       <c r="K11" t="n">
-        <v>51.52016361342286</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>84.54481721446609</v>
+        <v>49.11497697927645</v>
       </c>
       <c r="M11" t="n">
-        <v>83.81751137732807</v>
+        <v>83.81751137732802</v>
       </c>
       <c r="N11" t="n">
-        <v>78.26221480760586</v>
+        <v>78.26221480760582</v>
       </c>
       <c r="O11" t="n">
-        <v>36.61860963435599</v>
+        <v>36.61860963435593</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>9.995042630841148</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.39918729404057</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>41.72967770973998</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="N12" t="n">
-        <v>84.54481721446609</v>
+        <v>81.1288650037806</v>
       </c>
       <c r="O12" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,16 +35547,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>58.92879147545383</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>40.5387149873376</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.41613064448623</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35568,10 +35568,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="L13" t="n">
-        <v>50.33881989281068</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35580,16 +35580,16 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.35197831395234</v>
+        <v>77.35197831395222</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9271549315776326</v>
+        <v>0.9271549315775136</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.677880797008316</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>49.11497697927649</v>
+        <v>49.11497697927645</v>
       </c>
       <c r="M14" t="n">
-        <v>84.54481721446609</v>
+        <v>83.81751137732802</v>
       </c>
       <c r="N14" t="n">
-        <v>78.26221480760586</v>
+        <v>78.26221480760582</v>
       </c>
       <c r="O14" t="n">
-        <v>36.61860963435599</v>
+        <v>36.61860963435593</v>
       </c>
       <c r="P14" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>76.95496121777148</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>9.995042630841176</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.39918729404054</v>
       </c>
       <c r="L15" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="M15" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="N15" t="n">
-        <v>81.12886500378058</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="O15" t="n">
-        <v>84.54481721446609</v>
+        <v>41.72967770974001</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.49452106119648</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.92879147545386</v>
       </c>
       <c r="E16" t="n">
         <v>62.43530051393958</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>65.18455950771792</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35799,16 +35799,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.42278639300418</v>
+        <v>26.90080805188345</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>84.2581280182785</v>
       </c>
       <c r="K16" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2653451702008514</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>84.54481721446609</v>
+        <v>49.11497697927645</v>
       </c>
       <c r="M17" t="n">
-        <v>84.54481721446609</v>
+        <v>83.81751137732802</v>
       </c>
       <c r="N17" t="n">
-        <v>84.54481721446609</v>
+        <v>78.26221480760582</v>
       </c>
       <c r="O17" t="n">
-        <v>36.61860963435599</v>
+        <v>36.61860963435593</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>29.95714665824419</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>72.39689513743225</v>
       </c>
       <c r="V17" t="n">
         <v>14.55310871118041</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>81.12886500378056</v>
+        <v>81.1288650037806</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="N18" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="O18" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="P18" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>72.39689513743231</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.11497697927649</v>
+        <v>49.11497697927645</v>
       </c>
       <c r="M20" t="n">
-        <v>83.81751137732807</v>
+        <v>83.81751137732802</v>
       </c>
       <c r="N20" t="n">
-        <v>78.26221480760586</v>
+        <v>78.26221480760582</v>
       </c>
       <c r="O20" t="n">
-        <v>84.54481721446609</v>
+        <v>36.61860963435593</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36148,7 +36148,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>24.47068755732191</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404054</v>
       </c>
       <c r="L21" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="N21" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="O21" t="n">
-        <v>84.54481721446609</v>
+        <v>41.72967770974001</v>
       </c>
       <c r="P21" t="n">
-        <v>41.72967770974001</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,22 +36361,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.11497697927649</v>
+        <v>49.11497697927645</v>
       </c>
       <c r="M23" t="n">
-        <v>83.81751137732807</v>
+        <v>83.81751137732802</v>
       </c>
       <c r="N23" t="n">
-        <v>78.26221480760586</v>
+        <v>78.26221480760582</v>
       </c>
       <c r="O23" t="n">
-        <v>36.61860963435599</v>
+        <v>36.61860963435593</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>72.39689513743225</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,13 +36385,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2.40518663414633</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>14.55310871118041</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.39918729404054</v>
       </c>
       <c r="L24" t="n">
-        <v>84.54481721446609</v>
+        <v>41.72967770974005</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="N24" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>81.12886500378058</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="P24" t="n">
-        <v>84.54481721446609</v>
+        <v>84.54481721446611</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0926468199193</v>
+        <v>137.0926468199194</v>
       </c>
       <c r="K26" t="n">
         <v>207.6626829324723</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9554205493158</v>
+        <v>261.9554205493159</v>
       </c>
       <c r="M26" t="n">
         <v>296.6579549473674</v>
@@ -36607,16 +36607,16 @@
         <v>291.1026583776452</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4590532043953</v>
+        <v>249.4590532043954</v>
       </c>
       <c r="P26" t="n">
         <v>199.5000719991581</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4440857713488</v>
+        <v>124.4440857713489</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72404447471668</v>
+        <v>18.72404447471605</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404054</v>
       </c>
       <c r="L27" t="n">
         <v>119.9331728468309</v>
@@ -36683,13 +36683,13 @@
         <v>185.1630873627278</v>
       </c>
       <c r="N27" t="n">
-        <v>208.6697523727113</v>
+        <v>208.6697523727112</v>
       </c>
       <c r="O27" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71432073369496</v>
+        <v>85.71432073369493</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36735,10 +36735,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.16430235781434</v>
+        <v>39.89557256920896</v>
       </c>
       <c r="F28" t="n">
-        <v>63.24438714606148</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.98712986215327</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>197.1564035722716</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.656156775452303</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0926468199195</v>
+        <v>137.0926468199194</v>
       </c>
       <c r="K29" t="n">
         <v>207.6626829324723</v>
@@ -36838,13 +36838,13 @@
         <v>261.9554205493159</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6579549473675</v>
+        <v>296.6579549473674</v>
       </c>
       <c r="N29" t="n">
-        <v>291.1026583776453</v>
+        <v>291.1026583776452</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4590532043954</v>
+        <v>249.4590532043953</v>
       </c>
       <c r="P29" t="n">
         <v>199.5000719991581</v>
@@ -36853,7 +36853,7 @@
         <v>124.4440857713489</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72404447471603</v>
+        <v>18.72404447471602</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404054</v>
       </c>
       <c r="L30" t="n">
         <v>119.9331728468309</v>
@@ -36920,13 +36920,13 @@
         <v>185.1630873627278</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6697523727113</v>
+        <v>208.6697523727112</v>
       </c>
       <c r="O30" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71432073369496</v>
+        <v>85.71432073369493</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36978,22 +36978,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.1451324883611</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>13.83873363313926</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>92.98712986215334</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.5009521299002</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37008,10 +37008,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.89486723612824</v>
+        <v>86.08098015782709</v>
       </c>
       <c r="R31" t="n">
-        <v>9.656156775452388</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>207.6626829324723</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9554205493159</v>
+        <v>261.9554205493158</v>
       </c>
       <c r="M32" t="n">
         <v>296.6579549473674</v>
@@ -37081,16 +37081,16 @@
         <v>291.1026583776452</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4590532043954</v>
+        <v>249.4590532043953</v>
       </c>
       <c r="P32" t="n">
         <v>199.5000719991581</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4440857713489</v>
+        <v>124.4440857713488</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72404447471601</v>
+        <v>18.72404447471598</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404054</v>
       </c>
       <c r="L33" t="n">
         <v>119.9331728468309</v>
@@ -37157,13 +37157,13 @@
         <v>185.1630873627278</v>
       </c>
       <c r="N33" t="n">
-        <v>208.6697523727113</v>
+        <v>208.6697523727112</v>
       </c>
       <c r="O33" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P33" t="n">
-        <v>85.71432073369496</v>
+        <v>85.71432073369493</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37221,13 +37221,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.15178823687899</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.4549249723005</v>
+        <v>92.98712986215331</v>
       </c>
       <c r="K34" t="n">
-        <v>146.4452629323015</v>
+        <v>144.0648462793277</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37303,34 +37303,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>60.47942506985142</v>
+        <v>160.4872950285468</v>
       </c>
       <c r="K35" t="n">
-        <v>231.0573311410997</v>
+        <v>135.3941676900964</v>
       </c>
       <c r="L35" t="n">
-        <v>285.3500687579433</v>
+        <v>49.11497697927645</v>
       </c>
       <c r="M35" t="n">
-        <v>320.0526031559949</v>
+        <v>320.0526031559948</v>
       </c>
       <c r="N35" t="n">
-        <v>314.4973065862727</v>
+        <v>314.4973065862726</v>
       </c>
       <c r="O35" t="n">
-        <v>36.61860963435599</v>
+        <v>36.61860963435593</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>222.8947202077855</v>
       </c>
       <c r="Q35" t="n">
         <v>147.8387339799763</v>
       </c>
       <c r="R35" t="n">
-        <v>42.11869268334343</v>
+        <v>42.1186926833434</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.995665063189229</v>
       </c>
       <c r="T35" t="n">
         <v>13.82253142032221</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404054</v>
       </c>
       <c r="L36" t="n">
         <v>119.9331728468309</v>
@@ -37394,13 +37394,13 @@
         <v>185.1630873627278</v>
       </c>
       <c r="N36" t="n">
-        <v>208.6697523727113</v>
+        <v>208.6697523727112</v>
       </c>
       <c r="O36" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71432073369496</v>
+        <v>85.71432073369493</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37458,16 +37458,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.5464364455064</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>46.1667620836391</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>117.7131985291455</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37546,28 +37546,28 @@
         <v>231.0573311410997</v>
       </c>
       <c r="L38" t="n">
-        <v>285.3500687579433</v>
+        <v>49.11497697927645</v>
       </c>
       <c r="M38" t="n">
-        <v>320.0526031559949</v>
+        <v>83.81751137732802</v>
       </c>
       <c r="N38" t="n">
-        <v>130.4377853365784</v>
+        <v>218.8341431352691</v>
       </c>
       <c r="O38" t="n">
-        <v>36.61860963435599</v>
+        <v>272.8537014130227</v>
       </c>
       <c r="P38" t="n">
         <v>222.8947202077855</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>147.8387339799763</v>
       </c>
       <c r="R38" t="n">
-        <v>42.11869268334343</v>
+        <v>42.1186926833434</v>
       </c>
       <c r="S38" t="n">
-        <v>8.995665063189234</v>
+        <v>8.995665063189229</v>
       </c>
       <c r="T38" t="n">
         <v>13.82253142032221</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404054</v>
       </c>
       <c r="L39" t="n">
         <v>119.9331728468309</v>
@@ -37631,13 +37631,13 @@
         <v>185.1630873627278</v>
       </c>
       <c r="N39" t="n">
-        <v>208.6697523727113</v>
+        <v>208.6697523727112</v>
       </c>
       <c r="O39" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P39" t="n">
-        <v>85.71432073369496</v>
+        <v>85.71432073369493</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>117.7131985291455</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>84.30374319422283</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37740,10 +37740,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>14.31563637042427</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>19.09381896449838</v>
       </c>
     </row>
     <row r="41">
@@ -37780,10 +37780,10 @@
         <v>160.4872950285468</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>231.0573311410997</v>
       </c>
       <c r="L41" t="n">
-        <v>147.2271446172145</v>
+        <v>49.11497697927645</v>
       </c>
       <c r="M41" t="n">
         <v>320.0526031559949</v>
@@ -37792,13 +37792,13 @@
         <v>314.4973065862727</v>
       </c>
       <c r="O41" t="n">
-        <v>272.8537014130228</v>
+        <v>36.61860963435593</v>
       </c>
       <c r="P41" t="n">
         <v>222.8947202077855</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>117.1124596958274</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37807,7 +37807,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>13.82253142032221</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404054</v>
       </c>
       <c r="L42" t="n">
         <v>119.9331728468309</v>
@@ -37868,13 +37868,13 @@
         <v>185.1630873627278</v>
       </c>
       <c r="N42" t="n">
-        <v>208.6697523727113</v>
+        <v>208.6697523727112</v>
       </c>
       <c r="O42" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P42" t="n">
-        <v>85.71432073369496</v>
+        <v>85.71432073369493</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37914,16 +37914,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>69.77791080669448</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>47.9352877224509</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>97.30820956022015</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>20.40498896892533</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>160.4872950285468</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>231.0573311410997</v>
       </c>
       <c r="L44" t="n">
-        <v>109.9353182910041</v>
+        <v>285.3500687579433</v>
       </c>
       <c r="M44" t="n">
-        <v>320.0526031559949</v>
+        <v>83.81751137732802</v>
       </c>
       <c r="N44" t="n">
-        <v>314.4973065862727</v>
+        <v>78.26221480760582</v>
       </c>
       <c r="O44" t="n">
-        <v>272.8537014130228</v>
+        <v>186.1862030252084</v>
       </c>
       <c r="P44" t="n">
         <v>222.8947202077855</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>147.8387339799763</v>
       </c>
       <c r="R44" t="n">
         <v>42.11869268334343</v>
       </c>
       <c r="S44" t="n">
-        <v>8.995665063189234</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>13.82253142032224</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404054</v>
       </c>
       <c r="L45" t="n">
         <v>119.9331728468309</v>
@@ -38105,13 +38105,13 @@
         <v>185.1630873627278</v>
       </c>
       <c r="N45" t="n">
-        <v>208.6697523727113</v>
+        <v>208.6697523727112</v>
       </c>
       <c r="O45" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P45" t="n">
-        <v>85.71432073369496</v>
+        <v>85.71432073369493</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23.15424796270367</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>94.55895056644181</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>117.7131985291454</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
